--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B88A3DF-945F-44A0-894C-A3EBB734A602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526B5383-E607-491E-8140-B1AD450A2CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2481,10 +2481,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17</t>
-  </si>
-  <si>
-    <t>S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22</t>
+    <t>S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17</t>
+  </si>
+  <si>
+    <t>S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22</v>
+        <v>S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17</v>
+        <v>S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3701,7 +3701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50388945-C501-4141-8082-A4CCF8248461}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C80CFCD-392C-45B7-A415-E32292E86781}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6521,7 +6521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B833293D-0E90-4D39-A5F9-58AE7B1ADDE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB1EC56-B886-453F-9BBB-D43BF549D561}">
   <dimension ref="B2:O379"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6591,7 +6591,7 @@
         <v>430</v>
       </c>
       <c r="I4">
-        <v>0.11049962845663779</v>
+        <v>6.9102744882046332E-2</v>
       </c>
       <c r="J4" t="s">
         <v>431</v>
@@ -6600,10 +6600,10 @@
         <v>809</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N4">
-        <v>9.3706617306802395E-2</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O4" t="s">
         <v>820</v>
@@ -6626,7 +6626,7 @@
         <v>433</v>
       </c>
       <c r="I5">
-        <v>1.4747143922040471E-2</v>
+        <v>9.0283313245061378E-3</v>
       </c>
       <c r="J5" t="s">
         <v>431</v>
@@ -6649,7 +6649,7 @@
         <v>434</v>
       </c>
       <c r="C6">
-        <v>2.9720800000000002E-3</v>
+        <v>8.8889999999999998E-5</v>
       </c>
       <c r="D6" t="s">
         <v>431</v>
@@ -6661,7 +6661,7 @@
         <v>434</v>
       </c>
       <c r="I6">
-        <v>1.5814737807127725E-2</v>
+        <v>9.435445555022199E-3</v>
       </c>
       <c r="J6" t="s">
         <v>431</v>
@@ -6670,10 +6670,10 @@
         <v>809</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>8.8500694123091153E-2</v>
+        <v>0.63189495603887091</v>
       </c>
       <c r="O6" t="s">
         <v>820</v>
@@ -6684,7 +6684,7 @@
         <v>435</v>
       </c>
       <c r="C7">
-        <v>1.4208719999999999E-2</v>
+        <v>9.5477800000000005E-3</v>
       </c>
       <c r="D7" t="s">
         <v>431</v>
@@ -6696,7 +6696,7 @@
         <v>435</v>
       </c>
       <c r="I7">
-        <v>1.7038109932708868E-2</v>
+        <v>1.0138048170267647E-2</v>
       </c>
       <c r="J7" t="s">
         <v>431</v>
@@ -6708,7 +6708,7 @@
         <v>79</v>
       </c>
       <c r="N7">
-        <v>0.63189495603887091</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O7" t="s">
         <v>820</v>
@@ -6719,7 +6719,7 @@
         <v>436</v>
       </c>
       <c r="C8">
-        <v>0.16058636000000001</v>
+        <v>0.11259713</v>
       </c>
       <c r="D8" t="s">
         <v>431</v>
@@ -6731,7 +6731,7 @@
         <v>436</v>
       </c>
       <c r="I8">
-        <v>0.14319555421996533</v>
+        <v>8.6129717336578329E-2</v>
       </c>
       <c r="J8" t="s">
         <v>431</v>
@@ -6740,10 +6740,10 @@
         <v>809</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N8">
-        <v>0.22322998611753814</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O8" t="s">
         <v>820</v>
@@ -6754,7 +6754,7 @@
         <v>437</v>
       </c>
       <c r="C9">
-        <v>5.7471099999999997E-3</v>
+        <v>2.6397600000000001E-3</v>
       </c>
       <c r="D9" t="s">
         <v>431</v>
@@ -6766,7 +6766,7 @@
         <v>437</v>
       </c>
       <c r="I9">
-        <v>1.6405874978589897E-2</v>
+        <v>9.9736640136369667E-3</v>
       </c>
       <c r="J9" t="s">
         <v>431</v>
@@ -6780,7 +6780,7 @@
         <v>438</v>
       </c>
       <c r="C10">
-        <v>2.9050000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>431</v>
@@ -6792,7 +6792,7 @@
         <v>438</v>
       </c>
       <c r="I10">
-        <v>1.6514927418335153E-2</v>
+        <v>9.999990864058169E-3</v>
       </c>
       <c r="J10" t="s">
         <v>431</v>
@@ -6818,7 +6818,7 @@
         <v>439</v>
       </c>
       <c r="I11">
-        <v>6.796158226978237E-2</v>
+        <v>4.0903710182698352E-2</v>
       </c>
       <c r="J11" t="s">
         <v>431</v>
@@ -6832,7 +6832,7 @@
         <v>440</v>
       </c>
       <c r="C12">
-        <v>3.1587199999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>431</v>
@@ -6844,7 +6844,7 @@
         <v>440</v>
       </c>
       <c r="I12">
-        <v>7.8546642925202359E-2</v>
+        <v>4.1396883574591439E-2</v>
       </c>
       <c r="J12" t="s">
         <v>431</v>
@@ -6858,7 +6858,7 @@
         <v>441</v>
       </c>
       <c r="C13">
-        <v>2.1776719999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>431</v>
@@ -6870,7 +6870,7 @@
         <v>441</v>
       </c>
       <c r="I13">
-        <v>1.1027302924501286E-2</v>
+        <v>5.7188125975343321E-3</v>
       </c>
       <c r="J13" t="s">
         <v>431</v>
@@ -6884,7 +6884,7 @@
         <v>442</v>
       </c>
       <c r="C14">
-        <v>3.625229E-2</v>
+        <v>2.8831899999999999E-3</v>
       </c>
       <c r="D14" t="s">
         <v>431</v>
@@ -6896,7 +6896,7 @@
         <v>442</v>
       </c>
       <c r="I14">
-        <v>1.1826997569300394E-2</v>
+        <v>6.3792922521055265E-3</v>
       </c>
       <c r="J14" t="s">
         <v>431</v>
@@ -6910,7 +6910,7 @@
         <v>443</v>
       </c>
       <c r="C15">
-        <v>4.3965539999999997E-2</v>
+        <v>4.6609399999999997E-3</v>
       </c>
       <c r="D15" t="s">
         <v>431</v>
@@ -6922,7 +6922,7 @@
         <v>443</v>
       </c>
       <c r="I15">
-        <v>1.2378097006121405E-2</v>
+        <v>6.9000617624412229E-3</v>
       </c>
       <c r="J15" t="s">
         <v>431</v>
@@ -6936,7 +6936,7 @@
         <v>444</v>
       </c>
       <c r="C16">
-        <v>0.37751600000000002</v>
+        <v>4.7989230000000001E-2</v>
       </c>
       <c r="D16" t="s">
         <v>431</v>
@@ -6948,7 +6948,7 @@
         <v>444</v>
       </c>
       <c r="I16">
-        <v>0.11771605876014028</v>
+        <v>5.706583688338699E-2</v>
       </c>
       <c r="J16" t="s">
         <v>431</v>
@@ -6962,7 +6962,7 @@
         <v>445</v>
       </c>
       <c r="C17">
-        <v>3.4526719999999997E-2</v>
+        <v>3.10735E-3</v>
       </c>
       <c r="D17" t="s">
         <v>431</v>
@@ -6974,7 +6974,7 @@
         <v>445</v>
       </c>
       <c r="I17">
-        <v>1.1691046411124525E-2</v>
+        <v>6.4322109649529299E-3</v>
       </c>
       <c r="J17" t="s">
         <v>431</v>
@@ -6988,7 +6988,7 @@
         <v>446</v>
       </c>
       <c r="C18">
-        <v>2.228991E-2</v>
+        <v>2.9050000000000001E-5</v>
       </c>
       <c r="D18" t="s">
         <v>431</v>
@@ -7000,7 +7000,7 @@
         <v>446</v>
       </c>
       <c r="I18">
-        <v>1.121011238942698E-2</v>
+        <v>6.5149365542769852E-3</v>
       </c>
       <c r="J18" t="s">
         <v>431</v>
@@ -7014,7 +7014,7 @@
         <v>447</v>
       </c>
       <c r="C19">
-        <v>4.3419000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>431</v>
@@ -7026,7 +7026,7 @@
         <v>447</v>
       </c>
       <c r="I19">
-        <v>4.5567523939345392E-2</v>
+        <v>2.7057872087084014E-2</v>
       </c>
       <c r="J19" t="s">
         <v>431</v>
@@ -7040,7 +7040,7 @@
         <v>448</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>3.1587199999999998E-3</v>
       </c>
       <c r="D20" t="s">
         <v>431</v>
@@ -7052,7 +7052,7 @@
         <v>448</v>
       </c>
       <c r="I20">
-        <v>1.3334762445433577E-2</v>
+        <v>7.8546642925202359E-2</v>
       </c>
       <c r="J20" t="s">
         <v>431</v>
@@ -7066,7 +7066,7 @@
         <v>449</v>
       </c>
       <c r="C21">
-        <v>1.1604300000000001E-3</v>
+        <v>2.1776719999999999E-2</v>
       </c>
       <c r="D21" t="s">
         <v>431</v>
@@ -7078,7 +7078,7 @@
         <v>449</v>
       </c>
       <c r="I21">
-        <v>1.9110155105873099E-3</v>
+        <v>1.1027302924501286E-2</v>
       </c>
       <c r="J21" t="s">
         <v>431</v>
@@ -7092,7 +7092,7 @@
         <v>450</v>
       </c>
       <c r="C22">
-        <v>6.3854599999999999E-3</v>
+        <v>3.625229E-2</v>
       </c>
       <c r="D22" t="s">
         <v>431</v>
@@ -7104,7 +7104,7 @@
         <v>450</v>
       </c>
       <c r="I22">
-        <v>2.0911469594705359E-3</v>
+        <v>1.1826997569300394E-2</v>
       </c>
       <c r="J22" t="s">
         <v>431</v>
@@ -7118,7 +7118,7 @@
         <v>451</v>
       </c>
       <c r="C23">
-        <v>8.2340099999999999E-3</v>
+        <v>4.3965539999999997E-2</v>
       </c>
       <c r="D23" t="s">
         <v>431</v>
@@ -7130,7 +7130,7 @@
         <v>451</v>
       </c>
       <c r="I23">
-        <v>2.2526369060554556E-3</v>
+        <v>1.2378097006121405E-2</v>
       </c>
       <c r="J23" t="s">
         <v>431</v>
@@ -7144,7 +7144,7 @@
         <v>452</v>
       </c>
       <c r="C24">
-        <v>7.3607709999999993E-2</v>
+        <v>0.37751600000000002</v>
       </c>
       <c r="D24" t="s">
         <v>431</v>
@@ -7156,7 +7156,7 @@
         <v>452</v>
       </c>
       <c r="I24">
-        <v>2.1338466699538636E-2</v>
+        <v>0.11771605876014028</v>
       </c>
       <c r="J24" t="s">
         <v>431</v>
@@ -7170,7 +7170,7 @@
         <v>453</v>
       </c>
       <c r="C25">
-        <v>5.7424700000000004E-3</v>
+        <v>3.4526719999999997E-2</v>
       </c>
       <c r="D25" t="s">
         <v>431</v>
@@ -7182,7 +7182,7 @@
         <v>453</v>
       </c>
       <c r="I25">
-        <v>1.9564441473145294E-3</v>
+        <v>1.1691046411124525E-2</v>
       </c>
       <c r="J25" t="s">
         <v>431</v>
@@ -7196,7 +7196,7 @@
         <v>454</v>
       </c>
       <c r="C26">
-        <v>6.8303999999999999E-4</v>
+        <v>2.228991E-2</v>
       </c>
       <c r="D26" t="s">
         <v>431</v>
@@ -7208,7 +7208,7 @@
         <v>454</v>
       </c>
       <c r="I26">
-        <v>1.8820524881237449E-3</v>
+        <v>1.121011238942698E-2</v>
       </c>
       <c r="J26" t="s">
         <v>431</v>
@@ -7222,7 +7222,7 @@
         <v>455</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>4.3419000000000001E-3</v>
       </c>
       <c r="D27" t="s">
         <v>431</v>
@@ -7234,7 +7234,7 @@
         <v>455</v>
       </c>
       <c r="I27">
-        <v>7.9634921694619522E-3</v>
+        <v>4.5567523939345392E-2</v>
       </c>
       <c r="J27" t="s">
         <v>431</v>
@@ -7260,7 +7260,7 @@
         <v>456</v>
       </c>
       <c r="I28">
-        <v>8.7034126593052326E-3</v>
+        <v>2.2038175104738808E-2</v>
       </c>
       <c r="J28" t="s">
         <v>431</v>
@@ -7274,7 +7274,7 @@
         <v>457</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1.1604300000000001E-3</v>
       </c>
       <c r="D29" t="s">
         <v>431</v>
@@ -7286,7 +7286,7 @@
         <v>457</v>
       </c>
       <c r="I29">
-        <v>1.2057627752991625E-3</v>
+        <v>3.1167782858864727E-3</v>
       </c>
       <c r="J29" t="s">
         <v>431</v>
@@ -7300,7 +7300,7 @@
         <v>458</v>
       </c>
       <c r="C30">
-        <v>1.78477E-3</v>
+        <v>8.1702300000000005E-3</v>
       </c>
       <c r="D30" t="s">
         <v>431</v>
@@ -7312,7 +7312,7 @@
         <v>458</v>
       </c>
       <c r="I30">
-        <v>1.3085525629445438E-3</v>
+        <v>3.3996995224150799E-3</v>
       </c>
       <c r="J30" t="s">
         <v>431</v>
@@ -7326,7 +7326,7 @@
         <v>459</v>
       </c>
       <c r="C31">
-        <v>3.2014299999999999E-3</v>
+        <v>1.143544E-2</v>
       </c>
       <c r="D31" t="s">
         <v>431</v>
@@ -7338,7 +7338,7 @@
         <v>459</v>
       </c>
       <c r="I31">
-        <v>1.3502012916111418E-3</v>
+        <v>3.6028381976665976E-3</v>
       </c>
       <c r="J31" t="s">
         <v>431</v>
@@ -7352,7 +7352,7 @@
         <v>460</v>
       </c>
       <c r="C32">
-        <v>3.3076229999999998E-2</v>
+        <v>0.10668394</v>
       </c>
       <c r="D32" t="s">
         <v>431</v>
@@ -7364,7 +7364,7 @@
         <v>460</v>
       </c>
       <c r="I32">
-        <v>1.062981281413938E-2</v>
+        <v>3.1968279513678019E-2</v>
       </c>
       <c r="J32" t="s">
         <v>431</v>
@@ -7378,7 +7378,7 @@
         <v>461</v>
       </c>
       <c r="C33">
-        <v>8.1581999999999998E-4</v>
+        <v>6.5582900000000005E-3</v>
       </c>
       <c r="D33" t="s">
         <v>431</v>
@@ -7390,7 +7390,7 @@
         <v>461</v>
       </c>
       <c r="I33">
-        <v>1.1734382847819382E-3</v>
+        <v>3.1298824320964676E-3</v>
       </c>
       <c r="J33" t="s">
         <v>431</v>
@@ -7404,7 +7404,7 @@
         <v>462</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>6.8303999999999999E-4</v>
       </c>
       <c r="D34" t="s">
         <v>431</v>
@@ -7416,7 +7416,7 @@
         <v>462</v>
       </c>
       <c r="I34">
-        <v>1.1883347490203187E-3</v>
+        <v>3.0703872371440639E-3</v>
       </c>
       <c r="J34" t="s">
         <v>431</v>
@@ -7442,7 +7442,7 @@
         <v>463</v>
       </c>
       <c r="I35">
-        <v>4.8597134197839592E-3</v>
+        <v>1.2823205589245911E-2</v>
       </c>
       <c r="J35" t="s">
         <v>431</v>
@@ -16401,7 +16401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B40FD9F-6009-4BDC-B08D-1CE06158752D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ECBE17-CECD-4948-8DCD-12983B0AAD1C}">
   <dimension ref="B2:O755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -16453,10 +16453,10 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4">
-        <v>7.1917808219178078E-2</v>
+        <v>4.714611872146119E-2</v>
       </c>
       <c r="C4">
-        <v>2.8401660741366887E-2</v>
+        <v>1.861886648600718E-2</v>
       </c>
       <c r="D4" t="s">
         <v>430</v>
@@ -16471,7 +16471,7 @@
         <v>430</v>
       </c>
       <c r="J4">
-        <v>6.2152570044502725E-2</v>
+        <v>4.1328001177643389E-2</v>
       </c>
       <c r="M4" t="s">
         <v>13</v>
@@ -16480,15 +16480,15 @@
         <v>430</v>
       </c>
       <c r="O4">
-        <v>0.30908619689709971</v>
+        <v>0.29524362667493453</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>1.0273972602739725E-2</v>
+        <v>6.735159817351598E-3</v>
       </c>
       <c r="C5">
-        <v>1.7154364418367599E-2</v>
+        <v>1.124563889648543E-2</v>
       </c>
       <c r="D5" t="s">
         <v>433</v>
@@ -16503,7 +16503,7 @@
         <v>433</v>
       </c>
       <c r="J5">
-        <v>1.2009716442996836E-2</v>
+        <v>8.0851488420039929E-3</v>
       </c>
       <c r="M5" t="s">
         <v>13</v>
@@ -16512,15 +16512,15 @@
         <v>433</v>
       </c>
       <c r="O5">
-        <v>7.0029297758477993E-2</v>
+        <v>4.7126123672023956E-2</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6">
-        <v>1.0273972602739725E-2</v>
+        <v>6.735159817351598E-3</v>
       </c>
       <c r="C6">
-        <v>1.3126817989707386E-2</v>
+        <v>8.6053584599192871E-3</v>
       </c>
       <c r="D6" t="s">
         <v>434</v>
@@ -16535,7 +16535,7 @@
         <v>434</v>
       </c>
       <c r="J6">
-        <v>1.2485772756376091E-2</v>
+        <v>8.3943858858496045E-3</v>
       </c>
       <c r="M6" t="s">
         <v>13</v>
@@ -16544,15 +16544,15 @@
         <v>434</v>
       </c>
       <c r="O6">
-        <v>6.9367869595493348E-2</v>
+        <v>4.7484009459135335E-2</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7">
-        <v>1.0273972602739725E-2</v>
+        <v>6.735159817351598E-3</v>
       </c>
       <c r="C7">
-        <v>1.3007483280710046E-2</v>
+        <v>8.5271279284654736E-3</v>
       </c>
       <c r="D7" t="s">
         <v>435</v>
@@ -16567,7 +16567,7 @@
         <v>435</v>
       </c>
       <c r="J7">
-        <v>1.2692316263399403E-2</v>
+        <v>8.5234446018451013E-3</v>
       </c>
       <c r="M7" t="s">
         <v>13</v>
@@ -16576,15 +16576,15 @@
         <v>435</v>
       </c>
       <c r="O7">
-        <v>6.6074620471634482E-2</v>
+        <v>4.5197330291383508E-2</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8">
-        <v>8.2191780821917804E-2</v>
+        <v>5.3881278538812784E-2</v>
       </c>
       <c r="C8">
-        <v>0.12058772344181191</v>
+        <v>7.9051952034076695E-2</v>
       </c>
       <c r="D8" t="s">
         <v>436</v>
@@ -16599,7 +16599,7 @@
         <v>436</v>
       </c>
       <c r="J8">
-        <v>0.1004188360161762</v>
+        <v>6.7674261844725359E-2</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
@@ -16608,15 +16608,15 @@
         <v>436</v>
       </c>
       <c r="O8">
-        <v>0.10517912162373078</v>
+        <v>8.0389650494098852E-2</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9">
-        <v>1.0273972602739725E-2</v>
+        <v>6.735159817351598E-3</v>
       </c>
       <c r="C9">
-        <v>1.5513512169654176E-2</v>
+        <v>1.016996908899552E-2</v>
       </c>
       <c r="D9" t="s">
         <v>437</v>
@@ -16631,7 +16631,7 @@
         <v>437</v>
       </c>
       <c r="J9">
-        <v>1.3084579967321482E-2</v>
+        <v>8.8413511413772579E-3</v>
       </c>
       <c r="M9" t="s">
         <v>13</v>
@@ -16640,15 +16640,15 @@
         <v>437</v>
       </c>
       <c r="O9">
-        <v>6.6754614754251707E-2</v>
+        <v>4.0331772644039976E-2</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10">
-        <v>1.0273972602739725E-2</v>
+        <v>6.735159817351598E-3</v>
       </c>
       <c r="C10">
-        <v>1.4021828307187432E-2</v>
+        <v>9.1920874458228732E-3</v>
       </c>
       <c r="D10" t="s">
         <v>438</v>
@@ -16663,7 +16663,7 @@
         <v>438</v>
       </c>
       <c r="J10">
-        <v>1.2731469793507368E-2</v>
+        <v>8.5385270462681635E-3</v>
       </c>
       <c r="M10" t="s">
         <v>13</v>
@@ -16672,15 +16672,15 @@
         <v>438</v>
       </c>
       <c r="O10">
-        <v>5.023811114210841E-2</v>
+        <v>3.0789916534887052E-2</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11">
-        <v>4.1095890410958902E-2</v>
+        <v>2.6940639269406392E-2</v>
       </c>
       <c r="C11">
-        <v>2.4761952116948018E-2</v>
+        <v>1.623283527666592E-2</v>
       </c>
       <c r="D11" t="s">
         <v>439</v>
@@ -16695,7 +16695,7 @@
         <v>439</v>
       </c>
       <c r="J11">
-        <v>4.2876381964629673E-2</v>
+        <v>2.8553373673719802E-2</v>
       </c>
       <c r="M11" t="s">
         <v>13</v>
@@ -16704,15 +16704,15 @@
         <v>439</v>
       </c>
       <c r="O11">
-        <v>0.12357469288025147</v>
+        <v>0.109785485062313</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12">
-        <v>0.12226027397260274</v>
+        <v>2.4771689497716895E-2</v>
       </c>
       <c r="C12">
-        <v>4.8282823260323703E-2</v>
+        <v>9.7827942553597048E-3</v>
       </c>
       <c r="D12" t="s">
         <v>440</v>
@@ -16727,7 +16727,7 @@
         <v>440</v>
       </c>
       <c r="J12">
-        <v>9.5989883126765013E-2</v>
+        <v>2.0824568866859339E-2</v>
       </c>
       <c r="M12" t="s">
         <v>13</v>
@@ -16736,15 +16736,15 @@
         <v>440</v>
       </c>
       <c r="O12">
-        <v>0.25253238420196467</v>
+        <v>0.27884032566239036</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13">
-        <v>1.7465753424657535E-2</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C13">
-        <v>2.9162419511224922E-2</v>
+        <v>5.9087255218821738E-3</v>
       </c>
       <c r="D13" t="s">
         <v>441</v>
@@ -16759,7 +16759,7 @@
         <v>441</v>
       </c>
       <c r="J13">
-        <v>1.7287412494072642E-2</v>
+        <v>3.9245676009928418E-3</v>
       </c>
       <c r="M13" t="s">
         <v>13</v>
@@ -16768,15 +16768,15 @@
         <v>441</v>
       </c>
       <c r="O13">
-        <v>0.13629202385605721</v>
+        <v>9.6611285097571775E-2</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14">
-        <v>1.7465753424657535E-2</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C14">
-        <v>2.231559058250256E-2</v>
+        <v>4.521459529788099E-3</v>
       </c>
       <c r="D14" t="s">
         <v>442</v>
@@ -16791,7 +16791,7 @@
         <v>442</v>
       </c>
       <c r="J14">
-        <v>1.8394168048003832E-2</v>
+        <v>4.0913868705264866E-3</v>
       </c>
       <c r="M14" t="s">
         <v>13</v>
@@ -16800,15 +16800,15 @@
         <v>442</v>
       </c>
       <c r="O14">
-        <v>0.11899322776779986</v>
+        <v>9.6080459952263109E-2</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15">
-        <v>1.7465753424657535E-2</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C15">
-        <v>2.2112721577207076E-2</v>
+        <v>4.4803553522445696E-3</v>
       </c>
       <c r="D15" t="s">
         <v>443</v>
@@ -16823,7 +16823,7 @@
         <v>443</v>
       </c>
       <c r="J15">
-        <v>1.8615088124530728E-2</v>
+        <v>4.1688716615543011E-3</v>
       </c>
       <c r="M15" t="s">
         <v>13</v>
@@ -16832,15 +16832,15 @@
         <v>443</v>
       </c>
       <c r="O15">
-        <v>0.1189849959340632</v>
+        <v>8.2359576109102495E-2</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16">
-        <v>0.13972602739726028</v>
+        <v>2.8310502283105023E-2</v>
       </c>
       <c r="C16">
-        <v>0.20499912985108024</v>
+        <v>4.1535771407735213E-2</v>
       </c>
       <c r="D16" t="s">
         <v>444</v>
@@ -16855,7 +16855,7 @@
         <v>444</v>
       </c>
       <c r="J16">
-        <v>0.14928254098555391</v>
+        <v>3.2744574171450817E-2</v>
       </c>
       <c r="M16" t="s">
         <v>13</v>
@@ -16864,15 +16864,15 @@
         <v>444</v>
       </c>
       <c r="O16">
-        <v>0.14153455122880731</v>
+        <v>0.1140433443048483</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17">
-        <v>1.7465753424657535E-2</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C17">
-        <v>2.6372970688412108E-2</v>
+        <v>5.3435430806586613E-3</v>
       </c>
       <c r="D17" t="s">
         <v>445</v>
@@ -16887,7 +16887,7 @@
         <v>445</v>
       </c>
       <c r="J17">
-        <v>1.8568766960267023E-2</v>
+        <v>4.2432288259442244E-3</v>
       </c>
       <c r="M17" t="s">
         <v>13</v>
@@ -16896,15 +16896,15 @@
         <v>445</v>
       </c>
       <c r="O17">
-        <v>0.10810752915343902</v>
+        <v>8.3961008243862656E-2</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18">
-        <v>1.7465753424657535E-2</v>
+        <v>3.5388127853881279E-3</v>
       </c>
       <c r="C18">
-        <v>2.3837108122218637E-2</v>
+        <v>4.8297408613645603E-3</v>
       </c>
       <c r="D18" t="s">
         <v>446</v>
@@ -16919,7 +16919,7 @@
         <v>446</v>
       </c>
       <c r="J18">
-        <v>1.8425380485267689E-2</v>
+        <v>4.1929427472392035E-3</v>
       </c>
       <c r="M18" t="s">
         <v>13</v>
@@ -16928,15 +16928,15 @@
         <v>446</v>
       </c>
       <c r="O18">
-        <v>0.10965799619002992</v>
+        <v>6.7301470387042484E-2</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19">
-        <v>6.9863013698630141E-2</v>
+        <v>1.4155251141552512E-2</v>
       </c>
       <c r="C19">
-        <v>4.2095318598811632E-2</v>
+        <v>8.5291168402820937E-3</v>
       </c>
       <c r="D19" t="s">
         <v>447</v>
@@ -16951,7 +16951,7 @@
         <v>447</v>
       </c>
       <c r="J19">
-        <v>6.5542910736804488E-2</v>
+        <v>1.4323008290909871E-2</v>
       </c>
       <c r="M19" t="s">
         <v>13</v>
@@ -16960,15 +16960,15 @@
         <v>447</v>
       </c>
       <c r="O19">
-        <v>0.23835346524352574</v>
+        <v>0.12565838407205621</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20">
-        <v>2.3972602739726026E-2</v>
+        <v>0.12226027397260274</v>
       </c>
       <c r="C20">
-        <v>9.4672202471222967E-3</v>
+        <v>4.8282823260323703E-2</v>
       </c>
       <c r="D20" t="s">
         <v>448</v>
@@ -16983,7 +16983,7 @@
         <v>448</v>
       </c>
       <c r="J20">
-        <v>1.8399645640503087E-2</v>
+        <v>9.5989883126765013E-2</v>
       </c>
       <c r="M20" t="s">
         <v>13</v>
@@ -16992,15 +16992,15 @@
         <v>448</v>
       </c>
       <c r="O20">
-        <v>0.19659728118625064</v>
+        <v>0.25253238420196467</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B21">
-        <v>3.4246575342465752E-3</v>
+        <v>1.7465753424657535E-2</v>
       </c>
       <c r="C21">
-        <v>5.7181214727892006E-3</v>
+        <v>2.9162419511224922E-2</v>
       </c>
       <c r="D21" t="s">
         <v>449</v>
@@ -17015,7 +17015,7 @@
         <v>449</v>
       </c>
       <c r="J21">
-        <v>3.293789680502405E-3</v>
+        <v>1.7287412494072642E-2</v>
       </c>
       <c r="M21" t="s">
         <v>13</v>
@@ -17024,15 +17024,15 @@
         <v>449</v>
       </c>
       <c r="O21">
-        <v>8.0067961524600051E-2</v>
+        <v>0.13629202385605721</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B22">
-        <v>3.4246575342465752E-3</v>
+        <v>1.7465753424657535E-2</v>
       </c>
       <c r="C22">
-        <v>4.3756059965691279E-3</v>
+        <v>2.231559058250256E-2</v>
       </c>
       <c r="D22" t="s">
         <v>450</v>
@@ -17047,7 +17047,7 @@
         <v>450</v>
       </c>
       <c r="J22">
-        <v>3.5037198852776721E-3</v>
+        <v>1.8394168048003832E-2</v>
       </c>
       <c r="M22" t="s">
         <v>13</v>
@@ -17056,15 +17056,15 @@
         <v>450</v>
       </c>
       <c r="O22">
-        <v>6.7764737848116319E-2</v>
+        <v>0.11899322776779986</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B23">
-        <v>3.4246575342465752E-3</v>
+        <v>1.7465753424657535E-2</v>
       </c>
       <c r="C23">
-        <v>4.3358277602366805E-3</v>
+        <v>2.2112721577207076E-2</v>
       </c>
       <c r="D23" t="s">
         <v>451</v>
@@ -17079,7 +17079,7 @@
         <v>451</v>
       </c>
       <c r="J23">
-        <v>3.5387808427142053E-3</v>
+        <v>1.8615088124530728E-2</v>
       </c>
       <c r="M23" t="s">
         <v>13</v>
@@ -17088,15 +17088,15 @@
         <v>451</v>
       </c>
       <c r="O23">
-        <v>6.6501641578815995E-2</v>
+        <v>0.1189849959340632</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B24">
-        <v>2.7397260273972601E-2</v>
+        <v>0.13972602739726028</v>
       </c>
       <c r="C24">
-        <v>4.0195907813937302E-2</v>
+        <v>0.20499912985108024</v>
       </c>
       <c r="D24" t="s">
         <v>452</v>
@@ -17111,7 +17111,7 @@
         <v>452</v>
       </c>
       <c r="J24">
-        <v>2.8449998711808439E-2</v>
+        <v>0.14928254098555391</v>
       </c>
       <c r="M24" t="s">
         <v>13</v>
@@ -17120,15 +17120,15 @@
         <v>452</v>
       </c>
       <c r="O24">
-        <v>8.616857035957004E-2</v>
+        <v>0.14153455122880731</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B25">
-        <v>3.4246575342465752E-3</v>
+        <v>1.7465753424657535E-2</v>
       </c>
       <c r="C25">
-        <v>5.1711707232180593E-3</v>
+        <v>2.6372970688412108E-2</v>
       </c>
       <c r="D25" t="s">
         <v>453</v>
@@ -17143,7 +17143,7 @@
         <v>453</v>
       </c>
       <c r="J25">
-        <v>3.54119133047114E-3</v>
+        <v>1.8568766960267023E-2</v>
       </c>
       <c r="M25" t="s">
         <v>13</v>
@@ -17152,15 +17152,15 @@
         <v>453</v>
       </c>
       <c r="O25">
-        <v>6.1646784411448108E-2</v>
+        <v>0.10810752915343902</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B26">
-        <v>3.4246575342465752E-3</v>
+        <v>1.7465753424657535E-2</v>
       </c>
       <c r="C26">
-        <v>4.6739427690624773E-3</v>
+        <v>2.3837108122218637E-2</v>
       </c>
       <c r="D26" t="s">
         <v>454</v>
@@ -17175,7 +17175,7 @@
         <v>454</v>
       </c>
       <c r="J26">
-        <v>3.5165007269047826E-3</v>
+        <v>1.8425380485267689E-2</v>
       </c>
       <c r="M26" t="s">
         <v>13</v>
@@ -17184,15 +17184,15 @@
         <v>454</v>
       </c>
       <c r="O26">
-        <v>5.7035544013998463E-2</v>
+        <v>0.10965799619002992</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B27">
-        <v>1.3698630136986301E-2</v>
+        <v>6.9863013698630141E-2</v>
       </c>
       <c r="C27">
-        <v>8.2539840389826719E-3</v>
+        <v>4.2095318598811632E-2</v>
       </c>
       <c r="D27" t="s">
         <v>455</v>
@@ -17207,7 +17207,7 @@
         <v>455</v>
       </c>
       <c r="J27">
-        <v>1.2510367224708519E-2</v>
+        <v>6.5542910736804488E-2</v>
       </c>
       <c r="M27" t="s">
         <v>13</v>
@@ -17216,15 +17216,15 @@
         <v>455</v>
       </c>
       <c r="O27">
-        <v>0.1513291134774295</v>
+        <v>0.23835346524352574</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B28">
-        <v>1.3584474885844749E-2</v>
+        <v>3.7557077625570777E-2</v>
       </c>
       <c r="C28">
-        <v>5.3647581400359679E-3</v>
+        <v>1.4831978387158261E-2</v>
       </c>
       <c r="D28" t="s">
         <v>456</v>
@@ -17239,7 +17239,7 @@
         <v>456</v>
       </c>
       <c r="J28">
-        <v>1.0335714700346332E-2</v>
+        <v>2.873536034084942E-2</v>
       </c>
       <c r="M28" t="s">
         <v>13</v>
@@ -17248,15 +17248,15 @@
         <v>456</v>
       </c>
       <c r="O28">
-        <v>0.20395654480089576</v>
+        <v>0.19937688702792178</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B29">
-        <v>1.9406392694063927E-3</v>
+        <v>5.3652968036529683E-3</v>
       </c>
       <c r="C29">
-        <v>3.2402688345805472E-3</v>
+        <v>8.9583903073697478E-3</v>
       </c>
       <c r="D29" t="s">
         <v>457</v>
@@ -17271,7 +17271,7 @@
         <v>457</v>
       </c>
       <c r="J29">
-        <v>1.8717541153740391E-3</v>
+        <v>5.1655437958764436E-3</v>
       </c>
       <c r="M29" t="s">
         <v>13</v>
@@ -17280,15 +17280,15 @@
         <v>457</v>
       </c>
       <c r="O29">
-        <v>8.2309218937847151E-2</v>
+        <v>8.3938723441515206E-2</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B30">
-        <v>1.9406392694063927E-3</v>
+        <v>5.3652968036529683E-3</v>
       </c>
       <c r="C30">
-        <v>2.4795100647225059E-3</v>
+        <v>6.8551160612916337E-3</v>
       </c>
       <c r="D30" t="s">
         <v>458</v>
@@ -17303,7 +17303,7 @@
         <v>458</v>
       </c>
       <c r="J30">
-        <v>1.9903899123457822E-3</v>
+        <v>5.4941097976234548E-3</v>
       </c>
       <c r="M30" t="s">
         <v>13</v>
@@ -17312,15 +17312,15 @@
         <v>458</v>
       </c>
       <c r="O30">
-        <v>6.1237097479986513E-2</v>
+        <v>6.694811241596943E-2</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B31">
-        <v>1.9406392694063927E-3</v>
+        <v>5.3652968036529683E-3</v>
       </c>
       <c r="C31">
-        <v>2.4569690641341197E-3</v>
+        <v>6.7927968243708002E-3</v>
       </c>
       <c r="D31" t="s">
         <v>459</v>
@@ -17335,7 +17335,7 @@
         <v>459</v>
       </c>
       <c r="J31">
-        <v>2.0118665322362266E-3</v>
+        <v>5.5506473749504324E-3</v>
       </c>
       <c r="M31" t="s">
         <v>13</v>
@@ -17344,15 +17344,15 @@
         <v>459</v>
       </c>
       <c r="O31">
-        <v>4.1738159251703433E-2</v>
+        <v>6.5444112047865044E-2</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B32">
-        <v>1.5525114155251141E-2</v>
+        <v>4.2922374429223746E-2</v>
       </c>
       <c r="C32">
-        <v>2.2777681094564475E-2</v>
+        <v>6.2973588908501785E-2</v>
       </c>
       <c r="D32" t="s">
         <v>460</v>
@@ -17367,7 +17367,7 @@
         <v>460</v>
       </c>
       <c r="J32">
-        <v>1.599416110382694E-2</v>
+        <v>4.4444159815635383E-2</v>
       </c>
       <c r="M32" t="s">
         <v>13</v>
@@ -17376,15 +17376,15 @@
         <v>460</v>
       </c>
       <c r="O32">
-        <v>4.3907600070534292E-2</v>
+        <v>8.8629443100471272E-2</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B33">
-        <v>1.9406392694063927E-3</v>
+        <v>5.3652968036529683E-3</v>
       </c>
       <c r="C33">
-        <v>2.9303300764902339E-3</v>
+        <v>8.1015007997082972E-3</v>
       </c>
       <c r="D33" t="s">
         <v>461</v>
@@ -17399,7 +17399,7 @@
         <v>461</v>
       </c>
       <c r="J33">
-        <v>2.0152832672187971E-3</v>
+        <v>5.5564745976899371E-3</v>
       </c>
       <c r="M33" t="s">
         <v>13</v>
@@ -17408,15 +17408,15 @@
         <v>461</v>
       </c>
       <c r="O33">
-        <v>4.1056092153214818E-2</v>
+        <v>6.0279818179051592E-2</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B34">
-        <v>1.9406392694063927E-3</v>
+        <v>5.3652968036529683E-3</v>
       </c>
       <c r="C34">
-        <v>2.6485675691354038E-3</v>
+        <v>7.3225103381978855E-3</v>
       </c>
       <c r="D34" t="s">
         <v>462</v>
@@ -17431,7 +17431,7 @@
         <v>462</v>
       </c>
       <c r="J34">
-        <v>2.0104923289355446E-3</v>
+        <v>5.5269930558403272E-3</v>
       </c>
       <c r="M34" t="s">
         <v>13</v>
@@ -17440,15 +17440,15 @@
         <v>462</v>
       </c>
       <c r="O34">
-        <v>4.7570769630527421E-2</v>
+        <v>5.4254993996288636E-2</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B35">
-        <v>7.7625570776255707E-3</v>
+        <v>2.1461187214611873E-2</v>
       </c>
       <c r="C35">
-        <v>4.6772576220901812E-3</v>
+        <v>1.2931241661072852E-2</v>
       </c>
       <c r="D35" t="s">
         <v>463</v>
@@ -17463,7 +17463,7 @@
         <v>463</v>
       </c>
       <c r="J35">
-        <v>7.0942946898071828E-3</v>
+        <v>1.9604661914515698E-2</v>
       </c>
       <c r="M35" t="s">
         <v>13</v>
@@ -17472,7 +17472,7 @@
         <v>463</v>
       </c>
       <c r="O35">
-        <v>0.15259496222749114</v>
+        <v>0.15310208016177551</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.45">
@@ -28491,7 +28491,7 @@
         <v>430</v>
       </c>
       <c r="J380">
-        <v>7.0676867845529692E-2</v>
+        <v>4.6296111212786775E-2</v>
       </c>
     </row>
     <row r="381" spans="2:15" x14ac:dyDescent="0.45">
@@ -28502,7 +28502,7 @@
         <v>433</v>
       </c>
       <c r="J381">
-        <v>1.0347019651104253E-2</v>
+        <v>6.7881259361066183E-3</v>
       </c>
     </row>
     <row r="382" spans="2:15" x14ac:dyDescent="0.45">
@@ -28513,7 +28513,7 @@
         <v>434</v>
       </c>
       <c r="J382">
-        <v>1.0385083174664302E-2</v>
+        <v>6.8128512704278962E-3</v>
       </c>
     </row>
     <row r="383" spans="2:15" x14ac:dyDescent="0.45">
@@ -28524,7 +28524,7 @@
         <v>435</v>
       </c>
       <c r="J383">
-        <v>1.0401597552112528E-2</v>
+        <v>6.8231702796267323E-3</v>
       </c>
     </row>
     <row r="384" spans="2:15" x14ac:dyDescent="0.45">
@@ -28535,7 +28535,7 @@
         <v>436</v>
       </c>
       <c r="J384">
-        <v>8.3123254238555877E-2</v>
+        <v>5.4544321262162562E-2</v>
       </c>
     </row>
     <row r="385" spans="8:10" x14ac:dyDescent="0.45">
@@ -28546,7 +28546,7 @@
         <v>437</v>
       </c>
       <c r="J385">
-        <v>1.0432961359957034E-2</v>
+        <v>6.8485887915071438E-3</v>
       </c>
     </row>
     <row r="386" spans="8:10" x14ac:dyDescent="0.45">
@@ -28557,7 +28557,7 @@
         <v>438</v>
       </c>
       <c r="J386">
-        <v>1.0404728108884572E-2</v>
+        <v>6.8243762104431196E-3</v>
       </c>
     </row>
     <row r="387" spans="8:10" x14ac:dyDescent="0.45">
@@ -28568,7 +28568,7 @@
         <v>439</v>
       </c>
       <c r="J387">
-        <v>4.0975307429017886E-2</v>
+        <v>2.6849692925335147E-2</v>
       </c>
     </row>
     <row r="388" spans="8:10" x14ac:dyDescent="0.45">
@@ -28579,7 +28579,7 @@
         <v>440</v>
       </c>
       <c r="J388">
-        <v>0.12051889590551515</v>
+        <v>2.4380756632742924E-2</v>
       </c>
     </row>
     <row r="389" spans="8:10" x14ac:dyDescent="0.45">
@@ -28590,7 +28590,7 @@
         <v>441</v>
       </c>
       <c r="J389">
-        <v>1.7502793348931428E-2</v>
+        <v>3.5588937149976336E-3</v>
       </c>
     </row>
     <row r="390" spans="8:10" x14ac:dyDescent="0.45">
@@ -28601,7 +28601,7 @@
         <v>442</v>
       </c>
       <c r="J390">
-        <v>1.7591285014556528E-2</v>
+        <v>3.572231904236404E-3</v>
       </c>
     </row>
     <row r="391" spans="8:10" x14ac:dyDescent="0.45">
@@ -28612,7 +28612,7 @@
         <v>443</v>
       </c>
       <c r="J391">
-        <v>1.7608948883938026E-2</v>
+        <v>3.5784272724857964E-3</v>
       </c>
     </row>
     <row r="392" spans="8:10" x14ac:dyDescent="0.45">
@@ -28623,7 +28623,7 @@
         <v>444</v>
       </c>
       <c r="J392">
-        <v>0.14090052200323819</v>
+        <v>2.8578932976393311E-2</v>
       </c>
     </row>
     <row r="393" spans="8:10" x14ac:dyDescent="0.45">
@@ -28634,7 +28634,7 @@
         <v>445</v>
       </c>
       <c r="J393">
-        <v>1.7605245232336884E-2</v>
+        <v>3.5843725684498889E-3</v>
       </c>
     </row>
     <row r="394" spans="8:10" x14ac:dyDescent="0.45">
@@ -28645,7 +28645,7 @@
         <v>446</v>
       </c>
       <c r="J394">
-        <v>1.7593780633893507E-2</v>
+        <v>3.5803518984414517E-3</v>
       </c>
     </row>
     <row r="395" spans="8:10" x14ac:dyDescent="0.45">
@@ -28656,7 +28656,7 @@
         <v>447</v>
       </c>
       <c r="J395">
-        <v>6.972279321850966E-2</v>
+        <v>1.4125614503682739E-2</v>
       </c>
     </row>
     <row r="396" spans="8:10" x14ac:dyDescent="0.45">
@@ -28667,7 +28667,7 @@
         <v>448</v>
       </c>
       <c r="J396">
-        <v>2.3641391590636062E-2</v>
+        <v>0.12051889590551515</v>
       </c>
     </row>
     <row r="397" spans="8:10" x14ac:dyDescent="0.45">
@@ -28678,7 +28678,7 @@
         <v>449</v>
       </c>
       <c r="J397">
-        <v>3.4305338449954997E-3</v>
+        <v>1.7502793348931428E-2</v>
       </c>
     </row>
     <row r="398" spans="8:10" x14ac:dyDescent="0.45">
@@ -28689,7 +28689,7 @@
         <v>450</v>
       </c>
       <c r="J398">
-        <v>3.4473190089999591E-3</v>
+        <v>1.7591285014556528E-2</v>
       </c>
     </row>
     <row r="399" spans="8:10" x14ac:dyDescent="0.45">
@@ -28700,7 +28700,7 @@
         <v>451</v>
       </c>
       <c r="J399">
-        <v>3.4501223403326539E-3</v>
+        <v>1.7608948883938026E-2</v>
       </c>
     </row>
     <row r="400" spans="8:10" x14ac:dyDescent="0.45">
@@ -28711,7 +28711,7 @@
         <v>452</v>
       </c>
       <c r="J400">
-        <v>2.7612152720897926E-2</v>
+        <v>0.14090052200323819</v>
       </c>
     </row>
     <row r="401" spans="8:10" x14ac:dyDescent="0.45">
@@ -28722,7 +28722,7 @@
         <v>453</v>
       </c>
       <c r="J401">
-        <v>3.450315073114362E-3</v>
+        <v>1.7605245232336884E-2</v>
       </c>
     </row>
     <row r="402" spans="8:10" x14ac:dyDescent="0.45">
@@ -28733,7 +28733,7 @@
         <v>454</v>
       </c>
       <c r="J402">
-        <v>3.4483409130325669E-3</v>
+        <v>1.7593780633893507E-2</v>
       </c>
     </row>
     <row r="403" spans="8:10" x14ac:dyDescent="0.45">
@@ -28744,7 +28744,7 @@
         <v>455</v>
       </c>
       <c r="J403">
-        <v>1.3668981359945126E-2</v>
+        <v>6.972279321850966E-2</v>
       </c>
     </row>
     <row r="404" spans="8:10" x14ac:dyDescent="0.45">
@@ -28755,7 +28755,7 @@
         <v>456</v>
       </c>
       <c r="J404">
-        <v>1.3396917729128544E-2</v>
+        <v>3.7038309319764602E-2</v>
       </c>
     </row>
     <row r="405" spans="8:10" x14ac:dyDescent="0.45">
@@ -28766,7 +28766,7 @@
         <v>457</v>
       </c>
       <c r="J405">
-        <v>1.9454458464715602E-3</v>
+        <v>5.3759796914670602E-3</v>
       </c>
     </row>
     <row r="406" spans="8:10" x14ac:dyDescent="0.45">
@@ -28777,7 +28777,7 @@
         <v>458</v>
       </c>
       <c r="J406">
-        <v>1.9549314815239444E-3</v>
+        <v>5.4022504905239035E-3</v>
       </c>
     </row>
     <row r="407" spans="8:10" x14ac:dyDescent="0.45">
@@ -28788,7 +28788,7 @@
         <v>459</v>
       </c>
       <c r="J407">
-        <v>1.9566486645634621E-3</v>
+        <v>5.406771004896116E-3</v>
       </c>
     </row>
     <row r="408" spans="8:10" x14ac:dyDescent="0.45">
@@ -28799,7 +28799,7 @@
         <v>460</v>
       </c>
       <c r="J408">
-        <v>1.5645132065529092E-2</v>
+        <v>4.3257284786427021E-2</v>
       </c>
     </row>
     <row r="409" spans="8:10" x14ac:dyDescent="0.45">
@@ -28810,7 +28810,7 @@
         <v>461</v>
       </c>
       <c r="J409">
-        <v>1.9569218527742942E-3</v>
+        <v>5.4072369258886567E-3</v>
       </c>
     </row>
     <row r="410" spans="8:10" x14ac:dyDescent="0.45">
@@ -28821,7 +28821,7 @@
         <v>462</v>
       </c>
       <c r="J410">
-        <v>1.9565387888654789E-3</v>
+        <v>5.4048797018980462E-3</v>
       </c>
     </row>
     <row r="411" spans="8:10" x14ac:dyDescent="0.45">
@@ -28832,7 +28832,7 @@
         <v>463</v>
       </c>
       <c r="J411">
-        <v>7.7503829528090748E-3</v>
+        <v>2.1419364312754201E-2</v>
       </c>
     </row>
     <row r="412" spans="8:10" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178B690F-87E2-4738-9C7A-1A979C49A1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A19480-65F7-47E0-958C-BA056CD9AFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2481,10 +2481,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14,S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14</t>
-  </si>
-  <si>
-    <t>S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21,S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20</t>
+    <t>S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14</t>
+  </si>
+  <si>
+    <t>S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21,S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20</v>
+        <v>S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14,S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14</v>
+        <v>S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3701,7 +3701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7A5C9D-41D6-414F-9B7F-549590940456}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F18DB2-9E51-4F02-A93A-CCB64474BEE9}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6521,7 +6521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED93A40D-C220-49B7-92F3-205A436C71CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A1761E-C935-48D2-AE3B-DF32732F572F}">
   <dimension ref="B2:O379"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6670,10 +6670,10 @@
         <v>809</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>0.16266774641369736</v>
+        <v>0.63189495603887091</v>
       </c>
       <c r="O6" t="s">
         <v>820</v>
@@ -6705,10 +6705,10 @@
         <v>809</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N7">
-        <v>0.63189495603887091</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O7" t="s">
         <v>820</v>
@@ -16401,7 +16401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD49A9F-CDE0-4860-A948-D52060939524}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7271E2C5-3306-43C6-AA92-BE62C743D39E}">
   <dimension ref="B2:O755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A19480-65F7-47E0-958C-BA056CD9AFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC14DE71-7D32-4A44-8029-68ED68E098E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2481,10 +2481,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14</t>
-  </si>
-  <si>
-    <t>S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21</t>
+    <t>S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14</t>
+  </si>
+  <si>
+    <t>S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21</v>
+        <v>S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14</v>
+        <v>S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3701,7 +3701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F18DB2-9E51-4F02-A93A-CCB64474BEE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E610728-A629-420A-A936-B22D930214E1}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6521,7 +6521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A1761E-C935-48D2-AE3B-DF32732F572F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D93227-819F-4083-A88D-ACE678255116}">
   <dimension ref="B2:O379"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6600,10 +6600,10 @@
         <v>809</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>7.5520592318371119E-2</v>
+        <v>0.63189495603887091</v>
       </c>
       <c r="O4" t="s">
         <v>820</v>
@@ -6635,10 +6635,10 @@
         <v>809</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N5">
-        <v>0.14770939379916706</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O5" t="s">
         <v>820</v>
@@ -6670,10 +6670,10 @@
         <v>809</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N6">
-        <v>0.63189495603887091</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O6" t="s">
         <v>820</v>
@@ -6740,10 +6740,10 @@
         <v>809</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N8">
-        <v>0.18220731142989358</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O8" t="s">
         <v>820</v>
@@ -16401,7 +16401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7271E2C5-3306-43C6-AA92-BE62C743D39E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34481414-AA4A-475E-A3F1-9681D72FB79C}">
   <dimension ref="B2:O755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC14DE71-7D32-4A44-8029-68ED68E098E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E3C0D5-7921-42C4-BB25-1202E5BB91A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2481,10 +2481,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14</t>
-  </si>
-  <si>
-    <t>S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21</t>
+    <t>S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14</t>
+  </si>
+  <si>
+    <t>S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21</v>
+        <v>S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14</v>
+        <v>S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3701,7 +3701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E610728-A629-420A-A936-B22D930214E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1D9836-929E-4312-B8E7-4D883E06D4D8}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6521,7 +6521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D93227-819F-4083-A88D-ACE678255116}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0463F524-832C-4302-9AC1-35CAF2254542}">
   <dimension ref="B2:O379"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6600,10 +6600,10 @@
         <v>809</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N4">
-        <v>0.63189495603887091</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O4" t="s">
         <v>820</v>
@@ -6635,10 +6635,10 @@
         <v>809</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>0.18220731142989358</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O5" t="s">
         <v>820</v>
@@ -6670,10 +6670,10 @@
         <v>809</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="N6">
-        <v>7.5520592318371119E-2</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O6" t="s">
         <v>820</v>
@@ -6705,10 +6705,10 @@
         <v>809</v>
       </c>
       <c r="M7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>0.16266774641369736</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O7" t="s">
         <v>820</v>
@@ -6740,10 +6740,10 @@
         <v>809</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>0.14770939379916706</v>
+        <v>0.63189495603887091</v>
       </c>
       <c r="O8" t="s">
         <v>820</v>
@@ -16401,7 +16401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34481414-AA4A-475E-A3F1-9681D72FB79C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A85591E-6CDF-4D63-A841-0228733CB9E6}">
   <dimension ref="B2:O755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E3C0D5-7921-42C4-BB25-1202E5BB91A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D29EE13-8385-49A7-9707-48BD07D51032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2481,10 +2481,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14</t>
-  </si>
-  <si>
-    <t>S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21</t>
+    <t>S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4</t>
+  </si>
+  <si>
+    <t>S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21</v>
+        <v>S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14</v>
+        <v>S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3701,7 +3701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1D9836-929E-4312-B8E7-4D883E06D4D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A147AA75-A497-4418-A989-5B9BA08AE85B}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6521,7 +6521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0463F524-832C-4302-9AC1-35CAF2254542}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7189A2-54DC-4C22-B4A0-31E01F8B8447}">
   <dimension ref="B2:O379"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6600,10 +6600,10 @@
         <v>809</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>0.18220731142989358</v>
+        <v>0.63189495603887091</v>
       </c>
       <c r="O4" t="s">
         <v>820</v>
@@ -6635,10 +6635,10 @@
         <v>809</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>7.5520592318371119E-2</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O5" t="s">
         <v>820</v>
@@ -6670,10 +6670,10 @@
         <v>809</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>0.16266774641369736</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O6" t="s">
         <v>820</v>
@@ -6705,10 +6705,10 @@
         <v>809</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N7">
-        <v>0.14770939379916706</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O7" t="s">
         <v>820</v>
@@ -6740,10 +6740,10 @@
         <v>809</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N8">
-        <v>0.63189495603887091</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O8" t="s">
         <v>820</v>
@@ -16401,7 +16401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A85591E-6CDF-4D63-A841-0228733CB9E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919FC98C-8ABF-431E-A2F6-9AE912A836AB}">
   <dimension ref="B2:O755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE0D0876-06C4-49DF-8DE6-8ADBD20FA831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB4CF013-4F30-4A20-BBBC-0989E0410BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2487,10 +2487,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3b1022h17,S3b1023h13,S3b1025h18,S3b1026h10,S3b1028h14,S4aH5,S5c1218h07,S5c1219h12,S5c1220h18,S5c1221h09,S5c1222h15,S1aH5,S2aH4,S2aH5,S3b1024h09,S3b1024h12,S3b1024h15,S3b1026h08,S3b1027h10,S3b1027h16,S3b1028h17,S5aH2,S5aH5,S5c1219h18,S5c1221h10,S5c1223h14,S5c1223h18,S2aH6,S3aH5,S3b1025h09,S3b1027h09,S3b1028h09,S5aH3,S5c1218h09,S5c1218h11,S5c1218h13,S5c1219h07,S5c1219h11,S5c1220h15,S5c1221h08,S5c1221h13,S5c1223h15,S5c1223h16,S3aH3,S3b1022h09,S3b1023h16,S3b1025h07,S3b1025h14,S3b1026h07,S3b1026h09,S3b1027h08,S3b1027h17,S5c1218h17,S5c1220h14,S5c1221h12,S5c1221h15,S5c1222h11,S5c1223h07,S3b1022h10,S3b1023h17,S3b1024h13,S3b1025h11,S3b1026h15,S3b1028h10,S3b1028h11,S5aH4,S5c1217h12,S5c1219h15,S5c1222h17,S5c1223h12,S1aH2,S1aH7,S2aH3,S3aH6,S3b1022h14,S3b1025h10,S3b1025h12,S4aH7,S5aH6,S5aH7,S5c1217h14,S5c1220h07,S5c1221h11,S3b1024h07,S3b1024h11,S3b1024h16,S3b1025h15,S3b1028h12,S5c1218h18,S5c1219h14,S5c1222h18,S5c1223h17,S1aH3,S3b1023h08,S3b1023h12,S3b1024h14,S5c1217h13,S5c1217h18,S5c1219h08,S5c1220h12,S5c1222h07,S5c1222h14,S5c1223h10,S3aH2,S3b1023h11,S3b1025h16,S3b1026h11,S3b1026h13,S3b1027h07,S3b1028h18,S5c1218h08,S5c1220h10,S3b1023h10,S3b1026h12,S3b1026h17,S3b1027h12,S5c1218h12,S5c1219h17,S5c1220h08,S5c1220h11,S5c1221h18,S5c1223h11,S5c1223h13,S1aH6,S3b1023h07,S3b1023h15,S3b1024h10,S3b1025h17,S3b1026h16,S5c1217h15,S5c1219h10,S5c1220h09,S5c1221h17,S5c1222h13,S3b1023h18,S3b1026h18,S5c1217h16,S5c1218h10,S5c1218h15,S5c1220h16,S5c1220h17,S5c1223h09,S2aH7,S3aH4,S3b1022h07,S3b1022h08,S3b1022h18,S3b1023h09,S3b1023h14,S3b1024h08,S3b1025h08,S3b1025h13,S3b1027h11,S3b1027h13,S3b1027h14,S3b1027h18,S3b1028h13,S3b1028h16,S4aH3,S4aH4,S5c1217h10,S5c1217h11,S5c1217h17,S5c1218h14,S5c1221h07,S5c1222h16,S5c1223h08,S3aH7,S3b1022h12,S3b1022h13,S3b1024h17,S3b1026h14,S3b1027h15,S3b1028h08,S5c1217h07,S5c1217h08,S5c1219h09,S5c1220h13,S5c1221h14,S5c1222h09,S5c1222h12,S3b1022h16,S3b1028h07,S3b1028h15,S4aH2,S5c1219h13,S5c1219h16,S5c1222h10,S1aH4,S2aH2,S3b1022h11,S3b1022h15,S3b1024h18,S4aH6,S5c1217h09,S5c1218h16,S5c1221h16,S5c1222h08</t>
-  </si>
-  <si>
-    <t>S3b1022h01,S3b1022h02,S3b1024h03,S3b1025h05,S3b1025h20,S3b1026h24,S3b1028h06,S5c1218h02,S5c1219h03,S5c1220h04,S5c1222h06,S5c1223h02,S3b1022h04,S3b1022h20,S3b1022h23,S3b1023h04,S3b1024h04,S3b1025h22,S3b1026h20,S3b1027h19,S3b1028h23,S3b1028h24,S5c1222h01,S1aH8,S3b1024h06,S3b1025h19,S3b1027h02,S3b1028h03,S5aH1,S5c1223h05,S3b1022h19,S3b1025h21,S3b1026h19,S3b1026h23,S3b1027h22,S3b1027h23,S3b1028h02,S3b1028h04,S3b1028h19,S3b1028h21,S5c1217h06,S5c1217h24,S5c1219h20,S5c1219h22,S5c1220h01,S5c1220h19,S5c1221h04,S5c1221h06,S5c1221h21,S5c1221h22,S5c1223h06,S5c1223h23,S3b1022h06,S3b1024h01,S3b1024h19,S3b1024h22,S3b1024h23,S3b1026h04,S5c1217h05,S5c1218h06,S5c1218h21,S5c1219h01,S5c1221h24,S5c1222h04,S3b1022h05,S3b1022h21,S3b1022h24,S3b1023h01,S3b1024h20,S3b1025h06,S3b1027h04,S5c1219h23,S5c1219h24,S5c1220h03,S5c1220h05,S5c1221h23,S5c1222h03,S1aH1,S3b1023h06,S3b1025h02,S3b1026h02,S3b1026h05,S3b1026h22,S3b1027h20,S5c1218h01,S5c1218h03,S5c1220h23,S5c1223h03,S5c1223h22,S3b1023h21,S3b1023h23,S5c1217h02,S5c1217h22,S5c1219h05,S5c1221h05,S5c1221h20,S5c1222h24,S3aH8,S3b1022h22,S3b1023h24,S3b1027h06,S5c1219h06,S5c1220h06,S5c1220h21,S5c1222h21,S5c1223h20,S5c1223h24,S3aH1,S3b1023h02,S3b1023h03,S3b1024h24,S3b1025h01,S3b1026h01,S3b1027h24,S3b1028h20,S3b1028h22,S5c1217h03,S5c1218h24,S5c1221h01,S5c1222h19,S5c1223h04,S3b1027h01,S5c1217h21,S5c1218h23,S5c1220h24,S3b1023h20,S3b1024h02,S3b1026h21,S3b1027h05,S3b1028h01,S4aH8,S5c1217h19,S5c1218h04,S5c1219h02,S5c1219h19,S5c1219h21,S5c1221h19,S5c1222h23,S5c1223h01,S3b1025h23,S3b1025h24,S5c1217h04,S2aH8,S3b1025h03,S3b1025h04,S3b1027h21,S3b1028h05,S5c1217h01,S5c1217h23,S5c1218h05,S5c1220h20,S5c1223h19,S2aH1,S3b1022h03,S3b1023h22,S3b1024h05,S3b1024h21,S3b1026h06,S5aH8,S5c1218h22,S5c1221h03,S5c1222h05,S5c1222h20,S5c1222h22,S3b1023h05,S3b1023h19,S3b1026h03,S3b1027h03,S4aH1,S5c1217h20,S5c1218h19,S5c1218h20,S5c1219h04,S5c1220h02,S5c1220h22,S5c1221h02,S5c1222h02,S5c1223h21</t>
+    <t>S3b1022h16,S3b1028h07,S3b1028h15,S4aH2,S5c1219h13,S5c1219h16,S5c1222h10,S3b1022h17,S3b1023h13,S3b1025h18,S3b1026h10,S3b1028h14,S4aH5,S5c1218h07,S5c1219h12,S5c1220h18,S5c1221h09,S5c1222h15,S2aH6,S3aH5,S3b1025h09,S3b1027h09,S3b1028h09,S5aH3,S5c1218h09,S5c1218h11,S5c1218h13,S5c1219h07,S5c1219h11,S5c1220h15,S5c1221h08,S5c1221h13,S5c1223h15,S5c1223h16,S1aH2,S1aH7,S2aH3,S3aH6,S3b1022h14,S3b1025h10,S3b1025h12,S4aH7,S5aH6,S5aH7,S5c1217h14,S5c1220h07,S5c1221h11,S3b1023h10,S3b1026h12,S3b1026h17,S3b1027h12,S5c1218h12,S5c1219h17,S5c1220h08,S5c1220h11,S5c1221h18,S5c1223h11,S5c1223h13,S1aH5,S2aH4,S2aH5,S3b1024h09,S3b1024h12,S3b1024h15,S3b1026h08,S3b1027h10,S3b1027h16,S3b1028h17,S5aH2,S5aH5,S5c1219h18,S5c1221h10,S5c1223h14,S5c1223h18,S1aH3,S3b1023h08,S3b1023h12,S3b1024h14,S5c1217h13,S5c1217h18,S5c1219h08,S5c1220h12,S5c1222h07,S5c1222h14,S5c1223h10,S3b1023h18,S3b1026h18,S5c1217h16,S5c1218h10,S5c1218h15,S5c1220h16,S5c1220h17,S5c1223h09,S2aH7,S3aH4,S3b1022h07,S3b1022h08,S3b1022h18,S3b1023h09,S3b1023h14,S3b1024h08,S3b1025h08,S3b1025h13,S3b1027h11,S3b1027h13,S3b1027h14,S3b1027h18,S3b1028h13,S3b1028h16,S4aH3,S4aH4,S5c1217h10,S5c1217h11,S5c1217h17,S5c1218h14,S5c1221h07,S5c1222h16,S5c1223h08,S3b1022h10,S3b1023h17,S3b1024h13,S3b1025h11,S3b1026h15,S3b1028h10,S3b1028h11,S5aH4,S5c1217h12,S5c1219h15,S5c1222h17,S5c1223h12,S1aH4,S2aH2,S3b1022h11,S3b1022h15,S3b1024h18,S4aH6,S5c1217h09,S5c1218h16,S5c1221h16,S5c1222h08,S3aH3,S3b1022h09,S3b1023h16,S3b1025h07,S3b1025h14,S3b1026h07,S3b1026h09,S3b1027h08,S3b1027h17,S5c1218h17,S5c1220h14,S5c1221h12,S5c1221h15,S5c1222h11,S5c1223h07,S3aH7,S3b1022h12,S3b1022h13,S3b1024h17,S3b1026h14,S3b1027h15,S3b1028h08,S5c1217h07,S5c1217h08,S5c1219h09,S5c1220h13,S5c1221h14,S5c1222h09,S5c1222h12,S1aH6,S3b1023h07,S3b1023h15,S3b1024h10,S3b1025h17,S3b1026h16,S5c1217h15,S5c1219h10,S5c1220h09,S5c1221h17,S5c1222h13,S3b1024h07,S3b1024h11,S3b1024h16,S3b1025h15,S3b1028h12,S5c1218h18,S5c1219h14,S5c1222h18,S5c1223h17,S3aH2,S3b1023h11,S3b1025h16,S3b1026h11,S3b1026h13,S3b1027h07,S3b1028h18,S5c1218h08,S5c1220h10</t>
+  </si>
+  <si>
+    <t>S2aH1,S3b1022h03,S3b1023h22,S3b1024h05,S3b1024h21,S3b1026h06,S5aH8,S5c1218h22,S5c1221h03,S5c1222h05,S5c1222h20,S5c1222h22,S3b1022h01,S3b1022h02,S3b1024h03,S3b1025h05,S3b1025h20,S3b1026h24,S3b1028h06,S5c1218h02,S5c1219h03,S5c1220h04,S5c1222h06,S5c1223h02,S1aH8,S3b1024h06,S3b1025h19,S3b1027h02,S3b1028h03,S5aH1,S5c1223h05,S3b1022h05,S3b1022h21,S3b1022h24,S3b1023h01,S3b1024h20,S3b1025h06,S3b1027h04,S5c1219h23,S5c1219h24,S5c1220h03,S5c1220h05,S5c1221h23,S5c1222h03,S3aH1,S3b1023h02,S3b1023h03,S3b1024h24,S3b1025h01,S3b1026h01,S3b1027h24,S3b1028h20,S3b1028h22,S5c1217h03,S5c1218h24,S5c1221h01,S5c1222h19,S5c1223h04,S3b1022h04,S3b1022h20,S3b1022h23,S3b1023h04,S3b1024h04,S3b1025h22,S3b1026h20,S3b1027h19,S3b1028h23,S3b1028h24,S5c1222h01,S3b1023h21,S3b1023h23,S5c1217h02,S5c1217h22,S5c1219h05,S5c1221h05,S5c1221h20,S5c1222h24,S3b1023h20,S3b1024h02,S3b1026h21,S3b1027h05,S3b1028h01,S4aH8,S5c1217h19,S5c1218h04,S5c1219h02,S5c1219h19,S5c1219h21,S5c1221h19,S5c1222h23,S5c1223h01,S3b1025h23,S3b1025h24,S5c1217h04,S3b1022h06,S3b1024h01,S3b1024h19,S3b1024h22,S3b1024h23,S3b1026h04,S5c1217h05,S5c1218h06,S5c1218h21,S5c1219h01,S5c1221h24,S5c1222h04,S3b1023h05,S3b1023h19,S3b1026h03,S3b1027h03,S4aH1,S5c1217h20,S5c1218h19,S5c1218h20,S5c1219h04,S5c1220h02,S5c1220h22,S5c1221h02,S5c1222h02,S5c1223h21,S3b1022h19,S3b1025h21,S3b1026h19,S3b1026h23,S3b1027h22,S3b1027h23,S3b1028h02,S3b1028h04,S3b1028h19,S3b1028h21,S5c1217h06,S5c1217h24,S5c1219h20,S5c1219h22,S5c1220h01,S5c1220h19,S5c1221h04,S5c1221h06,S5c1221h21,S5c1221h22,S5c1223h06,S5c1223h23,S2aH8,S3b1025h03,S3b1025h04,S3b1027h21,S3b1028h05,S5c1217h01,S5c1217h23,S5c1218h05,S5c1220h20,S5c1223h19,S3b1027h01,S5c1217h21,S5c1218h23,S5c1220h24,S1aH1,S3b1023h06,S3b1025h02,S3b1026h02,S3b1026h05,S3b1026h22,S3b1027h20,S5c1218h01,S5c1218h03,S5c1220h23,S5c1223h03,S5c1223h22,S3aH8,S3b1022h22,S3b1023h24,S3b1027h06,S5c1219h06,S5c1220h06,S5c1220h21,S5c1222h21,S5c1223h20,S5c1223h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2807,7 +2807,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02034538-FBAC-18DF-8687-D6CC9D499827}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1573A48A-6A36-4081-7A59-E97B0A28784B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2862,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40A9748-15DA-1A9C-2E61-54F79ED044E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1100251A-355D-CC5F-8663-20430B034EF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2917,7 +2917,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E62339-DD75-4895-549B-5289C9D8C45B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67BD9B8C-99CC-4F68-1CEA-82E6F39C44F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3b1022h01,S3b1022h02,S3b1024h03,S3b1025h05,S3b1025h20,S3b1026h24,S3b1028h06,S5c1218h02,S5c1219h03,S5c1220h04,S5c1222h06,S5c1223h02,S3b1022h04,S3b1022h20,S3b1022h23,S3b1023h04,S3b1024h04,S3b1025h22,S3b1026h20,S3b1027h19,S3b1028h23,S3b1028h24,S5c1222h01,S1aH8,S3b1024h06,S3b1025h19,S3b1027h02,S3b1028h03,S5aH1,S5c1223h05,S3b1022h19,S3b1025h21,S3b1026h19,S3b1026h23,S3b1027h22,S3b1027h23,S3b1028h02,S3b1028h04,S3b1028h19,S3b1028h21,S5c1217h06,S5c1217h24,S5c1219h20,S5c1219h22,S5c1220h01,S5c1220h19,S5c1221h04,S5c1221h06,S5c1221h21,S5c1221h22,S5c1223h06,S5c1223h23,S3b1022h06,S3b1024h01,S3b1024h19,S3b1024h22,S3b1024h23,S3b1026h04,S5c1217h05,S5c1218h06,S5c1218h21,S5c1219h01,S5c1221h24,S5c1222h04,S3b1022h05,S3b1022h21,S3b1022h24,S3b1023h01,S3b1024h20,S3b1025h06,S3b1027h04,S5c1219h23,S5c1219h24,S5c1220h03,S5c1220h05,S5c1221h23,S5c1222h03,S1aH1,S3b1023h06,S3b1025h02,S3b1026h02,S3b1026h05,S3b1026h22,S3b1027h20,S5c1218h01,S5c1218h03,S5c1220h23,S5c1223h03,S5c1223h22,S3b1023h21,S3b1023h23,S5c1217h02,S5c1217h22,S5c1219h05,S5c1221h05,S5c1221h20,S5c1222h24,S3aH8,S3b1022h22,S3b1023h24,S3b1027h06,S5c1219h06,S5c1220h06,S5c1220h21,S5c1222h21,S5c1223h20,S5c1223h24,S3aH1,S3b1023h02,S3b1023h03,S3b1024h24,S3b1025h01,S3b1026h01,S3b1027h24,S3b1028h20,S3b1028h22,S5c1217h03,S5c1218h24,S5c1221h01,S5c1222h19,S5c1223h04,S3b1027h01,S5c1217h21,S5c1218h23,S5c1220h24,S3b1023h20,S3b1024h02,S3b1026h21,S3b1027h05,S3b1028h01,S4aH8,S5c1217h19,S5c1218h04,S5c1219h02,S5c1219h19,S5c1219h21,S5c1221h19,S5c1222h23,S5c1223h01,S3b1025h23,S3b1025h24,S5c1217h04,S2aH8,S3b1025h03,S3b1025h04,S3b1027h21,S3b1028h05,S5c1217h01,S5c1217h23,S5c1218h05,S5c1220h20,S5c1223h19,S2aH1,S3b1022h03,S3b1023h22,S3b1024h05,S3b1024h21,S3b1026h06,S5aH8,S5c1218h22,S5c1221h03,S5c1222h05,S5c1222h20,S5c1222h22,S3b1023h05,S3b1023h19,S3b1026h03,S3b1027h03,S4aH1,S5c1217h20,S5c1218h19,S5c1218h20,S5c1219h04,S5c1220h02,S5c1220h22,S5c1221h02,S5c1222h02,S5c1223h21</v>
+        <v>S2aH1,S3b1022h03,S3b1023h22,S3b1024h05,S3b1024h21,S3b1026h06,S5aH8,S5c1218h22,S5c1221h03,S5c1222h05,S5c1222h20,S5c1222h22,S3b1022h01,S3b1022h02,S3b1024h03,S3b1025h05,S3b1025h20,S3b1026h24,S3b1028h06,S5c1218h02,S5c1219h03,S5c1220h04,S5c1222h06,S5c1223h02,S1aH8,S3b1024h06,S3b1025h19,S3b1027h02,S3b1028h03,S5aH1,S5c1223h05,S3b1022h05,S3b1022h21,S3b1022h24,S3b1023h01,S3b1024h20,S3b1025h06,S3b1027h04,S5c1219h23,S5c1219h24,S5c1220h03,S5c1220h05,S5c1221h23,S5c1222h03,S3aH1,S3b1023h02,S3b1023h03,S3b1024h24,S3b1025h01,S3b1026h01,S3b1027h24,S3b1028h20,S3b1028h22,S5c1217h03,S5c1218h24,S5c1221h01,S5c1222h19,S5c1223h04,S3b1022h04,S3b1022h20,S3b1022h23,S3b1023h04,S3b1024h04,S3b1025h22,S3b1026h20,S3b1027h19,S3b1028h23,S3b1028h24,S5c1222h01,S3b1023h21,S3b1023h23,S5c1217h02,S5c1217h22,S5c1219h05,S5c1221h05,S5c1221h20,S5c1222h24,S3b1023h20,S3b1024h02,S3b1026h21,S3b1027h05,S3b1028h01,S4aH8,S5c1217h19,S5c1218h04,S5c1219h02,S5c1219h19,S5c1219h21,S5c1221h19,S5c1222h23,S5c1223h01,S3b1025h23,S3b1025h24,S5c1217h04,S3b1022h06,S3b1024h01,S3b1024h19,S3b1024h22,S3b1024h23,S3b1026h04,S5c1217h05,S5c1218h06,S5c1218h21,S5c1219h01,S5c1221h24,S5c1222h04,S3b1023h05,S3b1023h19,S3b1026h03,S3b1027h03,S4aH1,S5c1217h20,S5c1218h19,S5c1218h20,S5c1219h04,S5c1220h02,S5c1220h22,S5c1221h02,S5c1222h02,S5c1223h21,S3b1022h19,S3b1025h21,S3b1026h19,S3b1026h23,S3b1027h22,S3b1027h23,S3b1028h02,S3b1028h04,S3b1028h19,S3b1028h21,S5c1217h06,S5c1217h24,S5c1219h20,S5c1219h22,S5c1220h01,S5c1220h19,S5c1221h04,S5c1221h06,S5c1221h21,S5c1221h22,S5c1223h06,S5c1223h23,S2aH8,S3b1025h03,S3b1025h04,S3b1027h21,S3b1028h05,S5c1217h01,S5c1217h23,S5c1218h05,S5c1220h20,S5c1223h19,S3b1027h01,S5c1217h21,S5c1218h23,S5c1220h24,S1aH1,S3b1023h06,S3b1025h02,S3b1026h02,S3b1026h05,S3b1026h22,S3b1027h20,S5c1218h01,S5c1218h03,S5c1220h23,S5c1223h03,S5c1223h22,S3aH8,S3b1022h22,S3b1023h24,S3b1027h06,S5c1219h06,S5c1220h06,S5c1220h21,S5c1222h21,S5c1223h20,S5c1223h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3b1022h17,S3b1023h13,S3b1025h18,S3b1026h10,S3b1028h14,S4aH5,S5c1218h07,S5c1219h12,S5c1220h18,S5c1221h09,S5c1222h15,S1aH5,S2aH4,S2aH5,S3b1024h09,S3b1024h12,S3b1024h15,S3b1026h08,S3b1027h10,S3b1027h16,S3b1028h17,S5aH2,S5aH5,S5c1219h18,S5c1221h10,S5c1223h14,S5c1223h18,S2aH6,S3aH5,S3b1025h09,S3b1027h09,S3b1028h09,S5aH3,S5c1218h09,S5c1218h11,S5c1218h13,S5c1219h07,S5c1219h11,S5c1220h15,S5c1221h08,S5c1221h13,S5c1223h15,S5c1223h16,S3aH3,S3b1022h09,S3b1023h16,S3b1025h07,S3b1025h14,S3b1026h07,S3b1026h09,S3b1027h08,S3b1027h17,S5c1218h17,S5c1220h14,S5c1221h12,S5c1221h15,S5c1222h11,S5c1223h07,S3b1022h10,S3b1023h17,S3b1024h13,S3b1025h11,S3b1026h15,S3b1028h10,S3b1028h11,S5aH4,S5c1217h12,S5c1219h15,S5c1222h17,S5c1223h12,S1aH2,S1aH7,S2aH3,S3aH6,S3b1022h14,S3b1025h10,S3b1025h12,S4aH7,S5aH6,S5aH7,S5c1217h14,S5c1220h07,S5c1221h11,S3b1024h07,S3b1024h11,S3b1024h16,S3b1025h15,S3b1028h12,S5c1218h18,S5c1219h14,S5c1222h18,S5c1223h17,S1aH3,S3b1023h08,S3b1023h12,S3b1024h14,S5c1217h13,S5c1217h18,S5c1219h08,S5c1220h12,S5c1222h07,S5c1222h14,S5c1223h10,S3aH2,S3b1023h11,S3b1025h16,S3b1026h11,S3b1026h13,S3b1027h07,S3b1028h18,S5c1218h08,S5c1220h10,S3b1023h10,S3b1026h12,S3b1026h17,S3b1027h12,S5c1218h12,S5c1219h17,S5c1220h08,S5c1220h11,S5c1221h18,S5c1223h11,S5c1223h13,S1aH6,S3b1023h07,S3b1023h15,S3b1024h10,S3b1025h17,S3b1026h16,S5c1217h15,S5c1219h10,S5c1220h09,S5c1221h17,S5c1222h13,S3b1023h18,S3b1026h18,S5c1217h16,S5c1218h10,S5c1218h15,S5c1220h16,S5c1220h17,S5c1223h09,S2aH7,S3aH4,S3b1022h07,S3b1022h08,S3b1022h18,S3b1023h09,S3b1023h14,S3b1024h08,S3b1025h08,S3b1025h13,S3b1027h11,S3b1027h13,S3b1027h14,S3b1027h18,S3b1028h13,S3b1028h16,S4aH3,S4aH4,S5c1217h10,S5c1217h11,S5c1217h17,S5c1218h14,S5c1221h07,S5c1222h16,S5c1223h08,S3aH7,S3b1022h12,S3b1022h13,S3b1024h17,S3b1026h14,S3b1027h15,S3b1028h08,S5c1217h07,S5c1217h08,S5c1219h09,S5c1220h13,S5c1221h14,S5c1222h09,S5c1222h12,S3b1022h16,S3b1028h07,S3b1028h15,S4aH2,S5c1219h13,S5c1219h16,S5c1222h10,S1aH4,S2aH2,S3b1022h11,S3b1022h15,S3b1024h18,S4aH6,S5c1217h09,S5c1218h16,S5c1221h16,S5c1222h08</v>
+        <v>S3b1022h16,S3b1028h07,S3b1028h15,S4aH2,S5c1219h13,S5c1219h16,S5c1222h10,S3b1022h17,S3b1023h13,S3b1025h18,S3b1026h10,S3b1028h14,S4aH5,S5c1218h07,S5c1219h12,S5c1220h18,S5c1221h09,S5c1222h15,S2aH6,S3aH5,S3b1025h09,S3b1027h09,S3b1028h09,S5aH3,S5c1218h09,S5c1218h11,S5c1218h13,S5c1219h07,S5c1219h11,S5c1220h15,S5c1221h08,S5c1221h13,S5c1223h15,S5c1223h16,S1aH2,S1aH7,S2aH3,S3aH6,S3b1022h14,S3b1025h10,S3b1025h12,S4aH7,S5aH6,S5aH7,S5c1217h14,S5c1220h07,S5c1221h11,S3b1023h10,S3b1026h12,S3b1026h17,S3b1027h12,S5c1218h12,S5c1219h17,S5c1220h08,S5c1220h11,S5c1221h18,S5c1223h11,S5c1223h13,S1aH5,S2aH4,S2aH5,S3b1024h09,S3b1024h12,S3b1024h15,S3b1026h08,S3b1027h10,S3b1027h16,S3b1028h17,S5aH2,S5aH5,S5c1219h18,S5c1221h10,S5c1223h14,S5c1223h18,S1aH3,S3b1023h08,S3b1023h12,S3b1024h14,S5c1217h13,S5c1217h18,S5c1219h08,S5c1220h12,S5c1222h07,S5c1222h14,S5c1223h10,S3b1023h18,S3b1026h18,S5c1217h16,S5c1218h10,S5c1218h15,S5c1220h16,S5c1220h17,S5c1223h09,S2aH7,S3aH4,S3b1022h07,S3b1022h08,S3b1022h18,S3b1023h09,S3b1023h14,S3b1024h08,S3b1025h08,S3b1025h13,S3b1027h11,S3b1027h13,S3b1027h14,S3b1027h18,S3b1028h13,S3b1028h16,S4aH3,S4aH4,S5c1217h10,S5c1217h11,S5c1217h17,S5c1218h14,S5c1221h07,S5c1222h16,S5c1223h08,S3b1022h10,S3b1023h17,S3b1024h13,S3b1025h11,S3b1026h15,S3b1028h10,S3b1028h11,S5aH4,S5c1217h12,S5c1219h15,S5c1222h17,S5c1223h12,S1aH4,S2aH2,S3b1022h11,S3b1022h15,S3b1024h18,S4aH6,S5c1217h09,S5c1218h16,S5c1221h16,S5c1222h08,S3aH3,S3b1022h09,S3b1023h16,S3b1025h07,S3b1025h14,S3b1026h07,S3b1026h09,S3b1027h08,S3b1027h17,S5c1218h17,S5c1220h14,S5c1221h12,S5c1221h15,S5c1222h11,S5c1223h07,S3aH7,S3b1022h12,S3b1022h13,S3b1024h17,S3b1026h14,S3b1027h15,S3b1028h08,S5c1217h07,S5c1217h08,S5c1219h09,S5c1220h13,S5c1221h14,S5c1222h09,S5c1222h12,S1aH6,S3b1023h07,S3b1023h15,S3b1024h10,S3b1025h17,S3b1026h16,S5c1217h15,S5c1219h10,S5c1220h09,S5c1221h17,S5c1222h13,S3b1024h07,S3b1024h11,S3b1024h16,S3b1025h15,S3b1028h12,S5c1218h18,S5c1219h14,S5c1222h18,S5c1223h17,S3aH2,S3b1023h11,S3b1025h16,S3b1026h11,S3b1026h13,S3b1027h07,S3b1028h18,S5c1218h08,S5c1220h10</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3970,7 +3970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24854E0F-EB32-4E2E-8902-E6AA17659331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5D9305-939C-4ED3-8E97-5E79D48CDD54}">
   <dimension ref="A1:H354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7834,7 +7834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD9C4C7-236B-4584-950B-E6E477448E04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10E9637-3708-473E-B716-804592537BEC}">
   <dimension ref="A1:S386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7963,10 +7963,10 @@
         <v>434</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R11" s="24">
-        <v>8.4821841739935219E-2</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>823</v>
@@ -8010,10 +8010,10 @@
         <v>434</v>
       </c>
       <c r="Q12" s="25" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R12" s="26">
-        <v>7.5520592318371119E-2</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="S12" s="25" t="s">
         <v>823</v>
@@ -8057,10 +8057,10 @@
         <v>434</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="R13" s="24">
-        <v>0.14770939379916706</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>823</v>
@@ -8104,10 +8104,10 @@
         <v>434</v>
       </c>
       <c r="Q14" s="25" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="R14" s="26">
-        <v>7.7845904673762151E-2</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="S14" s="25" t="s">
         <v>823</v>
@@ -22268,7 +22268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195DF112-CB3E-4F86-8455-56582B5B2619}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8C5F53-68F3-4881-A731-D75D6F994FC6}">
   <dimension ref="A1:M762"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C793EEB9-336E-48C7-B023-718F7B5C1E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA89364F-AD9E-43F0-8605-DD88D169D441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2484,10 +2484,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S3b1023h08,S3b1023h12,S3b1024h14,S5c1217h13,S5c1217h18,S5c1219h08,S5c1220h12,S5c1222h07,S5c1222h14,S5c1223h10,S3b1022h16,S3b1028h07,S3b1028h15,S4aH2,S5c1219h13,S5c1219h16,S5c1222h10,S3b1023h18,S3b1026h18,S5c1217h16,S5c1218h10,S5c1218h15,S5c1220h16,S5c1220h17,S5c1223h09,S1aH2,S1aH7,S2aH3,S3aH6,S3b1022h14,S3b1025h10,S3b1025h12,S4aH7,S5aH6,S5aH7,S5c1217h14,S5c1220h07,S5c1221h11,S1aH5,S2aH4,S2aH5,S3b1024h09,S3b1024h12,S3b1024h15,S3b1026h08,S3b1027h10,S3b1027h16,S3b1028h17,S5aH2,S5aH5,S5c1219h18,S5c1221h10,S5c1223h14,S5c1223h18,S3aH3,S3b1022h09,S3b1023h16,S3b1025h07,S3b1025h14,S3b1026h07,S3b1026h09,S3b1027h08,S3b1027h17,S5c1218h17,S5c1220h14,S5c1221h12,S5c1221h15,S5c1222h11,S5c1223h07,S1aH4,S2aH2,S3b1022h11,S3b1022h15,S3b1024h18,S4aH6,S5c1217h09,S5c1218h16,S5c1221h16,S5c1222h08,S2aH6,S3aH5,S3b1025h09,S3b1027h09,S3b1028h09,S5aH3,S5c1218h09,S5c1218h11,S5c1218h13,S5c1219h07,S5c1219h11,S5c1220h15,S5c1221h08,S5c1221h13,S5c1223h15,S5c1223h16,S1aH6,S3b1023h07,S3b1023h15,S3b1024h10,S3b1025h17,S3b1026h16,S5c1217h15,S5c1219h10,S5c1220h09,S5c1221h17,S5c1222h13,S3b1023h10,S3b1026h12,S3b1026h17,S3b1027h12,S5c1218h12,S5c1219h17,S5c1220h08,S5c1220h11,S5c1221h18,S5c1223h11,S5c1223h13,S3aH7,S3b1022h12,S3b1022h13,S3b1024h17,S3b1026h14,S3b1027h15,S3b1028h08,S5c1217h07,S5c1217h08,S5c1219h09,S5c1220h13,S5c1221h14,S5c1222h09,S5c1222h12,S3b1024h07,S3b1024h11,S3b1024h16,S3b1025h15,S3b1028h12,S5c1218h18,S5c1219h14,S5c1222h18,S5c1223h17,S3b1022h17,S3b1023h13,S3b1025h18,S3b1026h10,S3b1028h14,S4aH5,S5c1218h07,S5c1219h12,S5c1220h18,S5c1221h09,S5c1222h15,S3aH2,S3b1023h11,S3b1025h16,S3b1026h11,S3b1026h13,S3b1027h07,S3b1028h18,S5c1218h08,S5c1220h10,S2aH7,S3aH4,S3b1022h07,S3b1022h08,S3b1022h18,S3b1023h09,S3b1023h14,S3b1024h08,S3b1025h08,S3b1025h13,S3b1027h11,S3b1027h13,S3b1027h14,S3b1027h18,S3b1028h13,S3b1028h16,S4aH3,S4aH4,S5c1217h10,S5c1217h11,S5c1217h17,S5c1218h14,S5c1221h07,S5c1222h16,S5c1223h08,S3b1022h10,S3b1023h17,S3b1024h13,S3b1025h11,S3b1026h15,S3b1028h10,S3b1028h11,S5aH4,S5c1217h12,S5c1219h15,S5c1222h17,S5c1223h12</t>
-  </si>
-  <si>
-    <t>S3b1023h21,S3b1023h23,S5c1217h02,S5c1217h22,S5c1219h05,S5c1221h05,S5c1221h20,S5c1222h24,S2aH1,S3b1022h03,S3b1023h22,S3b1024h05,S3b1024h21,S3b1026h06,S5aH8,S5c1218h22,S5c1221h03,S5c1222h05,S5c1222h20,S5c1222h22,S3b1023h20,S3b1024h02,S3b1026h21,S3b1027h05,S3b1028h01,S4aH8,S5c1217h19,S5c1218h04,S5c1219h02,S5c1219h19,S5c1219h21,S5c1221h19,S5c1222h23,S5c1223h01,S3b1022h05,S3b1022h21,S3b1022h24,S3b1023h01,S3b1024h20,S3b1025h06,S3b1027h04,S5c1219h23,S5c1219h24,S5c1220h03,S5c1220h05,S5c1221h23,S5c1222h03,S3b1022h04,S3b1022h20,S3b1022h23,S3b1023h04,S3b1024h04,S3b1025h22,S3b1026h20,S3b1027h19,S3b1028h23,S3b1028h24,S5c1222h01,S3b1022h19,S3b1025h21,S3b1026h19,S3b1026h23,S3b1027h22,S3b1027h23,S3b1028h02,S3b1028h04,S3b1028h19,S3b1028h21,S5c1217h06,S5c1217h24,S5c1219h20,S5c1219h22,S5c1220h01,S5c1220h19,S5c1221h04,S5c1221h06,S5c1221h21,S5c1221h22,S5c1223h06,S5c1223h23,S3b1023h05,S3b1023h19,S3b1026h03,S3b1027h03,S4aH1,S5c1217h20,S5c1218h19,S5c1218h20,S5c1219h04,S5c1220h02,S5c1220h22,S5c1221h02,S5c1222h02,S5c1223h21,S1aH8,S3b1024h06,S3b1025h19,S3b1027h02,S3b1028h03,S5aH1,S5c1223h05,S3b1027h01,S5c1217h21,S5c1218h23,S5c1220h24,S3aH1,S3b1023h02,S3b1023h03,S3b1024h24,S3b1025h01,S3b1026h01,S3b1027h24,S3b1028h20,S3b1028h22,S5c1217h03,S5c1218h24,S5c1221h01,S5c1222h19,S5c1223h04,S2aH8,S3b1025h03,S3b1025h04,S3b1027h21,S3b1028h05,S5c1217h01,S5c1217h23,S5c1218h05,S5c1220h20,S5c1223h19,S1aH1,S3b1023h06,S3b1025h02,S3b1026h02,S3b1026h05,S3b1026h22,S3b1027h20,S5c1218h01,S5c1218h03,S5c1220h23,S5c1223h03,S5c1223h22,S3b1022h01,S3b1022h02,S3b1024h03,S3b1025h05,S3b1025h20,S3b1026h24,S3b1028h06,S5c1218h02,S5c1219h03,S5c1220h04,S5c1222h06,S5c1223h02,S3aH8,S3b1022h22,S3b1023h24,S3b1027h06,S5c1219h06,S5c1220h06,S5c1220h21,S5c1222h21,S5c1223h20,S5c1223h24,S3b1025h23,S3b1025h24,S5c1217h04,S3b1022h06,S3b1024h01,S3b1024h19,S3b1024h22,S3b1024h23,S3b1026h04,S5c1217h05,S5c1218h06,S5c1218h21,S5c1219h01,S5c1221h24,S5c1222h04</t>
+    <t>S1aH2,S1aH7,S2aH3,S3aH6,S3b1022h14,S3b1025h10,S3b1025h12,S4aH7,S5aH6,S5aH7,S5c1217h14,S5c1220h07,S5c1221h11,S1aH6,S3b1023h07,S3b1023h15,S3b1024h10,S3b1025h17,S3b1026h16,S5c1217h15,S5c1219h10,S5c1220h09,S5c1221h17,S5c1222h13,S2aH7,S3aH4,S3b1022h07,S3b1022h08,S3b1022h18,S3b1023h09,S3b1023h14,S3b1024h08,S3b1025h08,S3b1025h13,S3b1027h11,S3b1027h13,S3b1027h14,S3b1027h18,S3b1028h13,S3b1028h16,S4aH3,S4aH4,S5c1217h10,S5c1217h11,S5c1217h17,S5c1218h14,S5c1221h07,S5c1222h16,S5c1223h08,S3b1022h10,S3b1023h17,S3b1024h13,S3b1025h11,S3b1026h15,S3b1028h10,S3b1028h11,S5aH4,S5c1217h12,S5c1219h15,S5c1222h17,S5c1223h12,S3b1022h16,S3b1028h07,S3b1028h15,S4aH2,S5c1219h13,S5c1219h16,S5c1222h10,S3aH3,S3b1022h09,S3b1023h16,S3b1025h07,S3b1025h14,S3b1026h07,S3b1026h09,S3b1027h08,S3b1027h17,S5c1218h17,S5c1220h14,S5c1221h12,S5c1221h15,S5c1222h11,S5c1223h07,S3b1024h07,S3b1024h11,S3b1024h16,S3b1025h15,S3b1028h12,S5c1218h18,S5c1219h14,S5c1222h18,S5c1223h17,S2aH6,S3aH5,S3b1025h09,S3b1027h09,S3b1028h09,S5aH3,S5c1218h09,S5c1218h11,S5c1218h13,S5c1219h07,S5c1219h11,S5c1220h15,S5c1221h08,S5c1221h13,S5c1223h15,S5c1223h16,S1aH3,S3b1023h08,S3b1023h12,S3b1024h14,S5c1217h13,S5c1217h18,S5c1219h08,S5c1220h12,S5c1222h07,S5c1222h14,S5c1223h10,S3b1022h17,S3b1023h13,S3b1025h18,S3b1026h10,S3b1028h14,S4aH5,S5c1218h07,S5c1219h12,S5c1220h18,S5c1221h09,S5c1222h15,S3aH2,S3b1023h11,S3b1025h16,S3b1026h11,S3b1026h13,S3b1027h07,S3b1028h18,S5c1218h08,S5c1220h10,S3b1023h10,S3b1026h12,S3b1026h17,S3b1027h12,S5c1218h12,S5c1219h17,S5c1220h08,S5c1220h11,S5c1221h18,S5c1223h11,S5c1223h13,S3b1023h18,S3b1026h18,S5c1217h16,S5c1218h10,S5c1218h15,S5c1220h16,S5c1220h17,S5c1223h09,S1aH4,S2aH2,S3b1022h11,S3b1022h15,S3b1024h18,S4aH6,S5c1217h09,S5c1218h16,S5c1221h16,S5c1222h08,S3aH7,S3b1022h12,S3b1022h13,S3b1024h17,S3b1026h14,S3b1027h15,S3b1028h08,S5c1217h07,S5c1217h08,S5c1219h09,S5c1220h13,S5c1221h14,S5c1222h09,S5c1222h12,S1aH5,S2aH4,S2aH5,S3b1024h09,S3b1024h12,S3b1024h15,S3b1026h08,S3b1027h10,S3b1027h16,S3b1028h17,S5aH2,S5aH5,S5c1219h18,S5c1221h10,S5c1223h14,S5c1223h18</t>
+  </si>
+  <si>
+    <t>S3b1022h05,S3b1022h21,S3b1022h24,S3b1023h01,S3b1024h20,S3b1025h06,S3b1027h04,S5c1219h23,S5c1219h24,S5c1220h03,S5c1220h05,S5c1221h23,S5c1222h03,S3b1027h01,S5c1217h21,S5c1218h23,S5c1220h24,S3b1025h23,S3b1025h24,S5c1217h04,S3b1022h06,S3b1024h01,S3b1024h19,S3b1024h22,S3b1024h23,S3b1026h04,S5c1217h05,S5c1218h06,S5c1218h21,S5c1219h01,S5c1221h24,S5c1222h04,S2aH1,S3b1022h03,S3b1023h22,S3b1024h05,S3b1024h21,S3b1026h06,S5aH8,S5c1218h22,S5c1221h03,S5c1222h05,S5c1222h20,S5c1222h22,S3b1022h19,S3b1025h21,S3b1026h19,S3b1026h23,S3b1027h22,S3b1027h23,S3b1028h02,S3b1028h04,S3b1028h19,S3b1028h21,S5c1217h06,S5c1217h24,S5c1219h20,S5c1219h22,S5c1220h01,S5c1220h19,S5c1221h04,S5c1221h06,S5c1221h21,S5c1221h22,S5c1223h06,S5c1223h23,S1aH1,S3b1023h06,S3b1025h02,S3b1026h02,S3b1026h05,S3b1026h22,S3b1027h20,S5c1218h01,S5c1218h03,S5c1220h23,S5c1223h03,S5c1223h22,S1aH8,S3b1024h06,S3b1025h19,S3b1027h02,S3b1028h03,S5aH1,S5c1223h05,S3b1023h21,S3b1023h23,S5c1217h02,S5c1217h22,S5c1219h05,S5c1221h05,S5c1221h20,S5c1222h24,S3b1022h01,S3b1022h02,S3b1024h03,S3b1025h05,S3b1025h20,S3b1026h24,S3b1028h06,S5c1218h02,S5c1219h03,S5c1220h04,S5c1222h06,S5c1223h02,S3aH8,S3b1022h22,S3b1023h24,S3b1027h06,S5c1219h06,S5c1220h06,S5c1220h21,S5c1222h21,S5c1223h20,S5c1223h24,S3aH1,S3b1023h02,S3b1023h03,S3b1024h24,S3b1025h01,S3b1026h01,S3b1027h24,S3b1028h20,S3b1028h22,S5c1217h03,S5c1218h24,S5c1221h01,S5c1222h19,S5c1223h04,S3b1023h20,S3b1024h02,S3b1026h21,S3b1027h05,S3b1028h01,S4aH8,S5c1217h19,S5c1218h04,S5c1219h02,S5c1219h19,S5c1219h21,S5c1221h19,S5c1222h23,S5c1223h01,S3b1023h05,S3b1023h19,S3b1026h03,S3b1027h03,S4aH1,S5c1217h20,S5c1218h19,S5c1218h20,S5c1219h04,S5c1220h02,S5c1220h22,S5c1221h02,S5c1222h02,S5c1223h21,S2aH8,S3b1025h03,S3b1025h04,S3b1027h21,S3b1028h05,S5c1217h01,S5c1217h23,S5c1218h05,S5c1220h20,S5c1223h19,S3b1022h04,S3b1022h20,S3b1022h23,S3b1023h04,S3b1024h04,S3b1025h22,S3b1026h20,S3b1027h19,S3b1028h23,S3b1028h24,S5c1222h01</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3b1023h21,S3b1023h23,S5c1217h02,S5c1217h22,S5c1219h05,S5c1221h05,S5c1221h20,S5c1222h24,S2aH1,S3b1022h03,S3b1023h22,S3b1024h05,S3b1024h21,S3b1026h06,S5aH8,S5c1218h22,S5c1221h03,S5c1222h05,S5c1222h20,S5c1222h22,S3b1023h20,S3b1024h02,S3b1026h21,S3b1027h05,S3b1028h01,S4aH8,S5c1217h19,S5c1218h04,S5c1219h02,S5c1219h19,S5c1219h21,S5c1221h19,S5c1222h23,S5c1223h01,S3b1022h05,S3b1022h21,S3b1022h24,S3b1023h01,S3b1024h20,S3b1025h06,S3b1027h04,S5c1219h23,S5c1219h24,S5c1220h03,S5c1220h05,S5c1221h23,S5c1222h03,S3b1022h04,S3b1022h20,S3b1022h23,S3b1023h04,S3b1024h04,S3b1025h22,S3b1026h20,S3b1027h19,S3b1028h23,S3b1028h24,S5c1222h01,S3b1022h19,S3b1025h21,S3b1026h19,S3b1026h23,S3b1027h22,S3b1027h23,S3b1028h02,S3b1028h04,S3b1028h19,S3b1028h21,S5c1217h06,S5c1217h24,S5c1219h20,S5c1219h22,S5c1220h01,S5c1220h19,S5c1221h04,S5c1221h06,S5c1221h21,S5c1221h22,S5c1223h06,S5c1223h23,S3b1023h05,S3b1023h19,S3b1026h03,S3b1027h03,S4aH1,S5c1217h20,S5c1218h19,S5c1218h20,S5c1219h04,S5c1220h02,S5c1220h22,S5c1221h02,S5c1222h02,S5c1223h21,S1aH8,S3b1024h06,S3b1025h19,S3b1027h02,S3b1028h03,S5aH1,S5c1223h05,S3b1027h01,S5c1217h21,S5c1218h23,S5c1220h24,S3aH1,S3b1023h02,S3b1023h03,S3b1024h24,S3b1025h01,S3b1026h01,S3b1027h24,S3b1028h20,S3b1028h22,S5c1217h03,S5c1218h24,S5c1221h01,S5c1222h19,S5c1223h04,S2aH8,S3b1025h03,S3b1025h04,S3b1027h21,S3b1028h05,S5c1217h01,S5c1217h23,S5c1218h05,S5c1220h20,S5c1223h19,S1aH1,S3b1023h06,S3b1025h02,S3b1026h02,S3b1026h05,S3b1026h22,S3b1027h20,S5c1218h01,S5c1218h03,S5c1220h23,S5c1223h03,S5c1223h22,S3b1022h01,S3b1022h02,S3b1024h03,S3b1025h05,S3b1025h20,S3b1026h24,S3b1028h06,S5c1218h02,S5c1219h03,S5c1220h04,S5c1222h06,S5c1223h02,S3aH8,S3b1022h22,S3b1023h24,S3b1027h06,S5c1219h06,S5c1220h06,S5c1220h21,S5c1222h21,S5c1223h20,S5c1223h24,S3b1025h23,S3b1025h24,S5c1217h04,S3b1022h06,S3b1024h01,S3b1024h19,S3b1024h22,S3b1024h23,S3b1026h04,S5c1217h05,S5c1218h06,S5c1218h21,S5c1219h01,S5c1221h24,S5c1222h04</v>
+        <v>S3b1022h05,S3b1022h21,S3b1022h24,S3b1023h01,S3b1024h20,S3b1025h06,S3b1027h04,S5c1219h23,S5c1219h24,S5c1220h03,S5c1220h05,S5c1221h23,S5c1222h03,S3b1027h01,S5c1217h21,S5c1218h23,S5c1220h24,S3b1025h23,S3b1025h24,S5c1217h04,S3b1022h06,S3b1024h01,S3b1024h19,S3b1024h22,S3b1024h23,S3b1026h04,S5c1217h05,S5c1218h06,S5c1218h21,S5c1219h01,S5c1221h24,S5c1222h04,S2aH1,S3b1022h03,S3b1023h22,S3b1024h05,S3b1024h21,S3b1026h06,S5aH8,S5c1218h22,S5c1221h03,S5c1222h05,S5c1222h20,S5c1222h22,S3b1022h19,S3b1025h21,S3b1026h19,S3b1026h23,S3b1027h22,S3b1027h23,S3b1028h02,S3b1028h04,S3b1028h19,S3b1028h21,S5c1217h06,S5c1217h24,S5c1219h20,S5c1219h22,S5c1220h01,S5c1220h19,S5c1221h04,S5c1221h06,S5c1221h21,S5c1221h22,S5c1223h06,S5c1223h23,S1aH1,S3b1023h06,S3b1025h02,S3b1026h02,S3b1026h05,S3b1026h22,S3b1027h20,S5c1218h01,S5c1218h03,S5c1220h23,S5c1223h03,S5c1223h22,S1aH8,S3b1024h06,S3b1025h19,S3b1027h02,S3b1028h03,S5aH1,S5c1223h05,S3b1023h21,S3b1023h23,S5c1217h02,S5c1217h22,S5c1219h05,S5c1221h05,S5c1221h20,S5c1222h24,S3b1022h01,S3b1022h02,S3b1024h03,S3b1025h05,S3b1025h20,S3b1026h24,S3b1028h06,S5c1218h02,S5c1219h03,S5c1220h04,S5c1222h06,S5c1223h02,S3aH8,S3b1022h22,S3b1023h24,S3b1027h06,S5c1219h06,S5c1220h06,S5c1220h21,S5c1222h21,S5c1223h20,S5c1223h24,S3aH1,S3b1023h02,S3b1023h03,S3b1024h24,S3b1025h01,S3b1026h01,S3b1027h24,S3b1028h20,S3b1028h22,S5c1217h03,S5c1218h24,S5c1221h01,S5c1222h19,S5c1223h04,S3b1023h20,S3b1024h02,S3b1026h21,S3b1027h05,S3b1028h01,S4aH8,S5c1217h19,S5c1218h04,S5c1219h02,S5c1219h19,S5c1219h21,S5c1221h19,S5c1222h23,S5c1223h01,S3b1023h05,S3b1023h19,S3b1026h03,S3b1027h03,S4aH1,S5c1217h20,S5c1218h19,S5c1218h20,S5c1219h04,S5c1220h02,S5c1220h22,S5c1221h02,S5c1222h02,S5c1223h21,S2aH8,S3b1025h03,S3b1025h04,S3b1027h21,S3b1028h05,S5c1217h01,S5c1217h23,S5c1218h05,S5c1220h20,S5c1223h19,S3b1022h04,S3b1022h20,S3b1022h23,S3b1023h04,S3b1024h04,S3b1025h22,S3b1026h20,S3b1027h19,S3b1028h23,S3b1028h24,S5c1222h01</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S3b1023h08,S3b1023h12,S3b1024h14,S5c1217h13,S5c1217h18,S5c1219h08,S5c1220h12,S5c1222h07,S5c1222h14,S5c1223h10,S3b1022h16,S3b1028h07,S3b1028h15,S4aH2,S5c1219h13,S5c1219h16,S5c1222h10,S3b1023h18,S3b1026h18,S5c1217h16,S5c1218h10,S5c1218h15,S5c1220h16,S5c1220h17,S5c1223h09,S1aH2,S1aH7,S2aH3,S3aH6,S3b1022h14,S3b1025h10,S3b1025h12,S4aH7,S5aH6,S5aH7,S5c1217h14,S5c1220h07,S5c1221h11,S1aH5,S2aH4,S2aH5,S3b1024h09,S3b1024h12,S3b1024h15,S3b1026h08,S3b1027h10,S3b1027h16,S3b1028h17,S5aH2,S5aH5,S5c1219h18,S5c1221h10,S5c1223h14,S5c1223h18,S3aH3,S3b1022h09,S3b1023h16,S3b1025h07,S3b1025h14,S3b1026h07,S3b1026h09,S3b1027h08,S3b1027h17,S5c1218h17,S5c1220h14,S5c1221h12,S5c1221h15,S5c1222h11,S5c1223h07,S1aH4,S2aH2,S3b1022h11,S3b1022h15,S3b1024h18,S4aH6,S5c1217h09,S5c1218h16,S5c1221h16,S5c1222h08,S2aH6,S3aH5,S3b1025h09,S3b1027h09,S3b1028h09,S5aH3,S5c1218h09,S5c1218h11,S5c1218h13,S5c1219h07,S5c1219h11,S5c1220h15,S5c1221h08,S5c1221h13,S5c1223h15,S5c1223h16,S1aH6,S3b1023h07,S3b1023h15,S3b1024h10,S3b1025h17,S3b1026h16,S5c1217h15,S5c1219h10,S5c1220h09,S5c1221h17,S5c1222h13,S3b1023h10,S3b1026h12,S3b1026h17,S3b1027h12,S5c1218h12,S5c1219h17,S5c1220h08,S5c1220h11,S5c1221h18,S5c1223h11,S5c1223h13,S3aH7,S3b1022h12,S3b1022h13,S3b1024h17,S3b1026h14,S3b1027h15,S3b1028h08,S5c1217h07,S5c1217h08,S5c1219h09,S5c1220h13,S5c1221h14,S5c1222h09,S5c1222h12,S3b1024h07,S3b1024h11,S3b1024h16,S3b1025h15,S3b1028h12,S5c1218h18,S5c1219h14,S5c1222h18,S5c1223h17,S3b1022h17,S3b1023h13,S3b1025h18,S3b1026h10,S3b1028h14,S4aH5,S5c1218h07,S5c1219h12,S5c1220h18,S5c1221h09,S5c1222h15,S3aH2,S3b1023h11,S3b1025h16,S3b1026h11,S3b1026h13,S3b1027h07,S3b1028h18,S5c1218h08,S5c1220h10,S2aH7,S3aH4,S3b1022h07,S3b1022h08,S3b1022h18,S3b1023h09,S3b1023h14,S3b1024h08,S3b1025h08,S3b1025h13,S3b1027h11,S3b1027h13,S3b1027h14,S3b1027h18,S3b1028h13,S3b1028h16,S4aH3,S4aH4,S5c1217h10,S5c1217h11,S5c1217h17,S5c1218h14,S5c1221h07,S5c1222h16,S5c1223h08,S3b1022h10,S3b1023h17,S3b1024h13,S3b1025h11,S3b1026h15,S3b1028h10,S3b1028h11,S5aH4,S5c1217h12,S5c1219h15,S5c1222h17,S5c1223h12</v>
+        <v>S1aH2,S1aH7,S2aH3,S3aH6,S3b1022h14,S3b1025h10,S3b1025h12,S4aH7,S5aH6,S5aH7,S5c1217h14,S5c1220h07,S5c1221h11,S1aH6,S3b1023h07,S3b1023h15,S3b1024h10,S3b1025h17,S3b1026h16,S5c1217h15,S5c1219h10,S5c1220h09,S5c1221h17,S5c1222h13,S2aH7,S3aH4,S3b1022h07,S3b1022h08,S3b1022h18,S3b1023h09,S3b1023h14,S3b1024h08,S3b1025h08,S3b1025h13,S3b1027h11,S3b1027h13,S3b1027h14,S3b1027h18,S3b1028h13,S3b1028h16,S4aH3,S4aH4,S5c1217h10,S5c1217h11,S5c1217h17,S5c1218h14,S5c1221h07,S5c1222h16,S5c1223h08,S3b1022h10,S3b1023h17,S3b1024h13,S3b1025h11,S3b1026h15,S3b1028h10,S3b1028h11,S5aH4,S5c1217h12,S5c1219h15,S5c1222h17,S5c1223h12,S3b1022h16,S3b1028h07,S3b1028h15,S4aH2,S5c1219h13,S5c1219h16,S5c1222h10,S3aH3,S3b1022h09,S3b1023h16,S3b1025h07,S3b1025h14,S3b1026h07,S3b1026h09,S3b1027h08,S3b1027h17,S5c1218h17,S5c1220h14,S5c1221h12,S5c1221h15,S5c1222h11,S5c1223h07,S3b1024h07,S3b1024h11,S3b1024h16,S3b1025h15,S3b1028h12,S5c1218h18,S5c1219h14,S5c1222h18,S5c1223h17,S2aH6,S3aH5,S3b1025h09,S3b1027h09,S3b1028h09,S5aH3,S5c1218h09,S5c1218h11,S5c1218h13,S5c1219h07,S5c1219h11,S5c1220h15,S5c1221h08,S5c1221h13,S5c1223h15,S5c1223h16,S1aH3,S3b1023h08,S3b1023h12,S3b1024h14,S5c1217h13,S5c1217h18,S5c1219h08,S5c1220h12,S5c1222h07,S5c1222h14,S5c1223h10,S3b1022h17,S3b1023h13,S3b1025h18,S3b1026h10,S3b1028h14,S4aH5,S5c1218h07,S5c1219h12,S5c1220h18,S5c1221h09,S5c1222h15,S3aH2,S3b1023h11,S3b1025h16,S3b1026h11,S3b1026h13,S3b1027h07,S3b1028h18,S5c1218h08,S5c1220h10,S3b1023h10,S3b1026h12,S3b1026h17,S3b1027h12,S5c1218h12,S5c1219h17,S5c1220h08,S5c1220h11,S5c1221h18,S5c1223h11,S5c1223h13,S3b1023h18,S3b1026h18,S5c1217h16,S5c1218h10,S5c1218h15,S5c1220h16,S5c1220h17,S5c1223h09,S1aH4,S2aH2,S3b1022h11,S3b1022h15,S3b1024h18,S4aH6,S5c1217h09,S5c1218h16,S5c1221h16,S5c1222h08,S3aH7,S3b1022h12,S3b1022h13,S3b1024h17,S3b1026h14,S3b1027h15,S3b1028h08,S5c1217h07,S5c1217h08,S5c1219h09,S5c1220h13,S5c1221h14,S5c1222h09,S5c1222h12,S1aH5,S2aH4,S2aH5,S3b1024h09,S3b1024h12,S3b1024h15,S3b1026h08,S3b1027h10,S3b1027h16,S3b1028h17,S5aH2,S5aH5,S5c1219h18,S5c1221h10,S5c1223h14,S5c1223h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3704,7 +3704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FA8498-B2CF-4F58-9890-7D6548EBC952}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F54DA1-C51C-48A3-A62F-86C98EC2EAFA}">
   <dimension ref="B9:F354"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6524,7 +6524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F684CFE7-02AF-4F8D-A207-94AC56E9C859}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5D7366-AAB6-47FE-A0AB-9501DFA9826A}">
   <dimension ref="B9:S386"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6630,10 +6630,10 @@
         <v>433</v>
       </c>
       <c r="Q11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R11">
-        <v>8.4821841739935219E-2</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="S11" t="s">
         <v>822</v>
@@ -6677,10 +6677,10 @@
         <v>433</v>
       </c>
       <c r="Q12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R12">
-        <v>0.81410226746876446</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="S12" t="s">
         <v>822</v>
@@ -6724,10 +6724,10 @@
         <v>433</v>
       </c>
       <c r="Q13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R13">
-        <v>7.7845904673762151E-2</v>
+        <v>0.81410226746876446</v>
       </c>
       <c r="S13" t="s">
         <v>822</v>
@@ -6771,10 +6771,10 @@
         <v>433</v>
       </c>
       <c r="Q14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="R14">
-        <v>7.5520592318371119E-2</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="S14" t="s">
         <v>822</v>
@@ -6818,10 +6818,10 @@
         <v>433</v>
       </c>
       <c r="Q15" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="R15">
-        <v>0.14770939379916706</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="S15" t="s">
         <v>822</v>
@@ -20931,7 +20931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188062D5-38DC-41E9-8BD3-8FA707D50B44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1774A2-88A6-4A9F-902E-57DE471A8843}">
   <dimension ref="B9:M762"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29BF9CDE-83C3-45E5-9CAC-76E36A0BE764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3284841F-8FEC-47C1-87F9-C1C9C9E5E0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2334,13 +2334,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S2aH7,S3aH4,S3b1022h07,S3b1022h08,S3b1022h18,S3b1023h09,S3b1023h14,S3b1024h08,S3b1025h08,S3b1025h13,S3b1027h11,S3b1027h13,S3b1027h14,S3b1027h18,S3b1028h13,S3b1028h16,S4aH3,S4aH4,S5c1217h10,S5c1217h11,S5c1217h17,S5c1218h14,S5c1221h07,S5c1222h16,S5c1223h08,S3aH3,S3b1022h09,S3b1023h16,S3b1025h07,S3b1025h14,S3b1026h07,S3b1026h09,S3b1027h08,S3b1027h17,S5c1218h17,S5c1220h14,S5c1221h12,S5c1221h15,S5c1222h11,S5c1223h07,S1aH3,S3b1023h08,S3b1023h12,S3b1024h14,S5c1217h13,S5c1217h18,S5c1219h08,S5c1220h12,S5c1222h07,S5c1222h14,S5c1223h10,S3b1022h16,S3b1028h07,S3b1028h15,S4aH2,S5c1219h13,S5c1219h16,S5c1222h10,S1aH4,S2aH2,S3b1022h11,S3b1022h15,S3b1024h18,S4aH6,S5c1217h09,S5c1218h16,S5c1221h16,S5c1222h08,S3b1022h17,S3b1023h13,S3b1025h18,S3b1026h10,S3b1028h14,S4aH5,S5c1218h07,S5c1219h12,S5c1220h18,S5c1221h09,S5c1222h15,S3b1023h10,S3b1026h12,S3b1026h17,S3b1027h12,S5c1218h12,S5c1219h17,S5c1220h08,S5c1220h11,S5c1221h18,S5c1223h11,S5c1223h13,S1aH2,S1aH7,S2aH3,S3aH6,S3b1022h14,S3b1025h10,S3b1025h12,S4aH7,S5aH6,S5aH7,S5c1217h14,S5c1220h07,S5c1221h11,S1aH5,S2aH4,S2aH5,S3b1024h09,S3b1024h12,S3b1024h15,S3b1026h08,S3b1027h10,S3b1027h16,S3b1028h17,S5aH2,S5aH5,S5c1219h18,S5c1221h10,S5c1223h14,S5c1223h18,S3aH7,S3b1022h12,S3b1022h13,S3b1024h17,S3b1026h14,S3b1027h15,S3b1028h08,S5c1217h07,S5c1217h08,S5c1219h09,S5c1220h13,S5c1221h14,S5c1222h09,S5c1222h12,S3aH2,S3b1023h11,S3b1025h16,S3b1026h11,S3b1026h13,S3b1027h07,S3b1028h18,S5c1218h08,S5c1220h10,S3b1024h07,S3b1024h11,S3b1024h16,S3b1025h15,S3b1028h12,S5c1218h18,S5c1219h14,S5c1222h18,S5c1223h17,S3b1022h10,S3b1023h17,S3b1024h13,S3b1025h11,S3b1026h15,S3b1028h10,S3b1028h11,S5aH4,S5c1217h12,S5c1219h15,S5c1222h17,S5c1223h12,S1aH6,S3b1023h07,S3b1023h15,S3b1024h10,S3b1025h17,S3b1026h16,S5c1217h15,S5c1219h10,S5c1220h09,S5c1221h17,S5c1222h13,S2aH6,S3aH5,S3b1025h09,S3b1027h09,S3b1028h09,S5aH3,S5c1218h09,S5c1218h11,S5c1218h13,S5c1219h07,S5c1219h11,S5c1220h15,S5c1221h08,S5c1221h13,S5c1223h15,S5c1223h16,S3b1023h18,S3b1026h18,S5c1217h16,S5c1218h10,S5c1218h15,S5c1220h16,S5c1220h17,S5c1223h09</t>
+    <t>S3b1022h17,S3b1023h13,S3b1025h18,S3b1026h10,S3b1028h14,S4aH5,S5c1218h07,S5c1219h12,S5c1220h18,S5c1221h09,S5c1222h15,S3aH7,S3b1022h12,S3b1022h13,S3b1024h17,S3b1026h14,S3b1027h15,S3b1028h08,S5c1217h07,S5c1217h08,S5c1219h09,S5c1220h13,S5c1221h14,S5c1222h09,S5c1222h12,S3b1022h10,S3b1023h17,S3b1024h13,S3b1025h11,S3b1026h15,S3b1028h10,S3b1028h11,S5aH4,S5c1217h12,S5c1219h15,S5c1222h17,S5c1223h12,S1aH5,S2aH4,S2aH5,S3b1024h09,S3b1024h12,S3b1024h15,S3b1026h08,S3b1027h10,S3b1027h16,S3b1028h17,S5aH2,S5aH5,S5c1219h18,S5c1221h10,S5c1223h14,S5c1223h18,S1aH6,S3b1023h07,S3b1023h15,S3b1024h10,S3b1025h17,S3b1026h16,S5c1217h15,S5c1219h10,S5c1220h09,S5c1221h17,S5c1222h13,S1aH3,S3b1023h08,S3b1023h12,S3b1024h14,S5c1217h13,S5c1217h18,S5c1219h08,S5c1220h12,S5c1222h07,S5c1222h14,S5c1223h10,S1aH4,S2aH2,S3b1022h11,S3b1022h15,S3b1024h18,S4aH6,S5c1217h09,S5c1218h16,S5c1221h16,S5c1222h08,S1aH2,S1aH7,S2aH3,S3aH6,S3b1022h14,S3b1025h10,S3b1025h12,S4aH7,S5aH6,S5aH7,S5c1217h14,S5c1220h07,S5c1221h11,S2aH6,S3aH5,S3b1025h09,S3b1027h09,S3b1028h09,S5aH3,S5c1218h09,S5c1218h11,S5c1218h13,S5c1219h07,S5c1219h11,S5c1220h15,S5c1221h08,S5c1221h13,S5c1223h15,S5c1223h16,S3aH2,S3b1023h11,S3b1025h16,S3b1026h11,S3b1026h13,S3b1027h07,S3b1028h18,S5c1218h08,S5c1220h10,S3b1024h07,S3b1024h11,S3b1024h16,S3b1025h15,S3b1028h12,S5c1218h18,S5c1219h14,S5c1222h18,S5c1223h17,S3b1023h18,S3b1026h18,S5c1217h16,S5c1218h10,S5c1218h15,S5c1220h16,S5c1220h17,S5c1223h09,S2aH7,S3aH4,S3b1022h07,S3b1022h08,S3b1022h18,S3b1023h09,S3b1023h14,S3b1024h08,S3b1025h08,S3b1025h13,S3b1027h11,S3b1027h13,S3b1027h14,S3b1027h18,S3b1028h13,S3b1028h16,S4aH3,S4aH4,S5c1217h10,S5c1217h11,S5c1217h17,S5c1218h14,S5c1221h07,S5c1222h16,S5c1223h08,S3aH3,S3b1022h09,S3b1023h16,S3b1025h07,S3b1025h14,S3b1026h07,S3b1026h09,S3b1027h08,S3b1027h17,S5c1218h17,S5c1220h14,S5c1221h12,S5c1221h15,S5c1222h11,S5c1223h07,S3b1023h10,S3b1026h12,S3b1026h17,S3b1027h12,S5c1218h12,S5c1219h17,S5c1220h08,S5c1220h11,S5c1221h18,S5c1223h11,S5c1223h13,S3b1022h16,S3b1028h07,S3b1028h15,S4aH2,S5c1219h13,S5c1219h16,S5c1222h10</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S3b1025h23,S3b1025h24,S5c1217h04,S3b1022h19,S3b1025h21,S3b1026h19,S3b1026h23,S3b1027h22,S3b1027h23,S3b1028h02,S3b1028h04,S3b1028h19,S3b1028h21,S5c1217h06,S5c1217h24,S5c1219h20,S5c1219h22,S5c1220h01,S5c1220h19,S5c1221h04,S5c1221h06,S5c1221h21,S5c1221h22,S5c1223h06,S5c1223h23,S3b1023h21,S3b1023h23,S5c1217h02,S5c1217h22,S5c1219h05,S5c1221h05,S5c1221h20,S5c1222h24,S2aH1,S3b1022h03,S3b1023h22,S3b1024h05,S3b1024h21,S3b1026h06,S5aH8,S5c1218h22,S5c1221h03,S5c1222h05,S5c1222h20,S5c1222h22,S3b1023h05,S3b1023h19,S3b1026h03,S3b1027h03,S4aH1,S5c1217h20,S5c1218h19,S5c1218h20,S5c1219h04,S5c1220h02,S5c1220h22,S5c1221h02,S5c1222h02,S5c1223h21,S3b1022h01,S3b1022h02,S3b1024h03,S3b1025h05,S3b1025h20,S3b1026h24,S3b1028h06,S5c1218h02,S5c1219h03,S5c1220h04,S5c1222h06,S5c1223h02,S3aH1,S3b1023h02,S3b1023h03,S3b1024h24,S3b1025h01,S3b1026h01,S3b1027h24,S3b1028h20,S3b1028h22,S5c1217h03,S5c1218h24,S5c1221h01,S5c1222h19,S5c1223h04,S3b1022h05,S3b1022h21,S3b1022h24,S3b1023h01,S3b1024h20,S3b1025h06,S3b1027h04,S5c1219h23,S5c1219h24,S5c1220h03,S5c1220h05,S5c1221h23,S5c1222h03,S3b1022h04,S3b1022h20,S3b1022h23,S3b1023h04,S3b1024h04,S3b1025h22,S3b1026h20,S3b1027h19,S3b1028h23,S3b1028h24,S5c1222h01,S2aH8,S3b1025h03,S3b1025h04,S3b1027h21,S3b1028h05,S5c1217h01,S5c1217h23,S5c1218h05,S5c1220h20,S5c1223h19,S3aH8,S3b1022h22,S3b1023h24,S3b1027h06,S5c1219h06,S5c1220h06,S5c1220h21,S5c1222h21,S5c1223h20,S5c1223h24,S1aH1,S3b1023h06,S3b1025h02,S3b1026h02,S3b1026h05,S3b1026h22,S3b1027h20,S5c1218h01,S5c1218h03,S5c1220h23,S5c1223h03,S5c1223h22,S3b1022h06,S3b1024h01,S3b1024h19,S3b1024h22,S3b1024h23,S3b1026h04,S5c1217h05,S5c1218h06,S5c1218h21,S5c1219h01,S5c1221h24,S5c1222h04,S3b1027h01,S5c1217h21,S5c1218h23,S5c1220h24,S1aH8,S3b1024h06,S3b1025h19,S3b1027h02,S3b1028h03,S5aH1,S5c1223h05,S3b1023h20,S3b1024h02,S3b1026h21,S3b1027h05,S3b1028h01,S4aH8,S5c1217h19,S5c1218h04,S5c1219h02,S5c1219h19,S5c1219h21,S5c1221h19,S5c1222h23,S5c1223h01</t>
+    <t>S3b1022h01,S3b1022h02,S3b1024h03,S3b1025h05,S3b1025h20,S3b1026h24,S3b1028h06,S5c1218h02,S5c1219h03,S5c1220h04,S5c1222h06,S5c1223h02,S2aH8,S3b1025h03,S3b1025h04,S3b1027h21,S3b1028h05,S5c1217h01,S5c1217h23,S5c1218h05,S5c1220h20,S5c1223h19,S3b1022h06,S3b1024h01,S3b1024h19,S3b1024h22,S3b1024h23,S3b1026h04,S5c1217h05,S5c1218h06,S5c1218h21,S5c1219h01,S5c1221h24,S5c1222h04,S3b1022h04,S3b1022h20,S3b1022h23,S3b1023h04,S3b1024h04,S3b1025h22,S3b1026h20,S3b1027h19,S3b1028h23,S3b1028h24,S5c1222h01,S3b1027h01,S5c1217h21,S5c1218h23,S5c1220h24,S3b1023h21,S3b1023h23,S5c1217h02,S5c1217h22,S5c1219h05,S5c1221h05,S5c1221h20,S5c1222h24,S3b1023h05,S3b1023h19,S3b1026h03,S3b1027h03,S4aH1,S5c1217h20,S5c1218h19,S5c1218h20,S5c1219h04,S5c1220h02,S5c1220h22,S5c1221h02,S5c1222h02,S5c1223h21,S3b1022h05,S3b1022h21,S3b1022h24,S3b1023h01,S3b1024h20,S3b1025h06,S3b1027h04,S5c1219h23,S5c1219h24,S5c1220h03,S5c1220h05,S5c1221h23,S5c1222h03,S1aH8,S3b1024h06,S3b1025h19,S3b1027h02,S3b1028h03,S5aH1,S5c1223h05,S3aH8,S3b1022h22,S3b1023h24,S3b1027h06,S5c1219h06,S5c1220h06,S5c1220h21,S5c1222h21,S5c1223h20,S5c1223h24,S1aH1,S3b1023h06,S3b1025h02,S3b1026h02,S3b1026h05,S3b1026h22,S3b1027h20,S5c1218h01,S5c1218h03,S5c1220h23,S5c1223h03,S5c1223h22,S3b1023h20,S3b1024h02,S3b1026h21,S3b1027h05,S3b1028h01,S4aH8,S5c1217h19,S5c1218h04,S5c1219h02,S5c1219h19,S5c1219h21,S5c1221h19,S5c1222h23,S5c1223h01,S3b1025h23,S3b1025h24,S5c1217h04,S3b1022h19,S3b1025h21,S3b1026h19,S3b1026h23,S3b1027h22,S3b1027h23,S3b1028h02,S3b1028h04,S3b1028h19,S3b1028h21,S5c1217h06,S5c1217h24,S5c1219h20,S5c1219h22,S5c1220h01,S5c1220h19,S5c1221h04,S5c1221h06,S5c1221h21,S5c1221h22,S5c1223h06,S5c1223h23,S3aH1,S3b1023h02,S3b1023h03,S3b1024h24,S3b1025h01,S3b1026h01,S3b1027h24,S3b1028h20,S3b1028h22,S5c1217h03,S5c1218h24,S5c1221h01,S5c1222h19,S5c1223h04,S2aH1,S3b1022h03,S3b1023h22,S3b1024h05,S3b1024h21,S3b1026h06,S5aH8,S5c1218h22,S5c1221h03,S5c1222h05,S5c1222h20,S5c1222h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S3b1025h23,S3b1025h24,S5c1217h04,S3b1022h19,S3b1025h21,S3b1026h19,S3b1026h23,S3b1027h22,S3b1027h23,S3b1028h02,S3b1028h04,S3b1028h19,S3b1028h21,S5c1217h06,S5c1217h24,S5c1219h20,S5c1219h22,S5c1220h01,S5c1220h19,S5c1221h04,S5c1221h06,S5c1221h21,S5c1221h22,S5c1223h06,S5c1223h23,S3b1023h21,S3b1023h23,S5c1217h02,S5c1217h22,S5c1219h05,S5c1221h05,S5c1221h20,S5c1222h24,S2aH1,S3b1022h03,S3b1023h22,S3b1024h05,S3b1024h21,S3b1026h06,S5aH8,S5c1218h22,S5c1221h03,S5c1222h05,S5c1222h20,S5c1222h22,S3b1023h05,S3b1023h19,S3b1026h03,S3b1027h03,S4aH1,S5c1217h20,S5c1218h19,S5c1218h20,S5c1219h04,S5c1220h02,S5c1220h22,S5c1221h02,S5c1222h02,S5c1223h21,S3b1022h01,S3b1022h02,S3b1024h03,S3b1025h05,S3b1025h20,S3b1026h24,S3b1028h06,S5c1218h02,S5c1219h03,S5c1220h04,S5c1222h06,S5c1223h02,S3aH1,S3b1023h02,S3b1023h03,S3b1024h24,S3b1025h01,S3b1026h01,S3b1027h24,S3b1028h20,S3b1028h22,S5c1217h03,S5c1218h24,S5c1221h01,S5c1222h19,S5c1223h04,S3b1022h05,S3b1022h21,S3b1022h24,S3b1023h01,S3b1024h20,S3b1025h06,S3b1027h04,S5c1219h23,S5c1219h24,S5c1220h03,S5c1220h05,S5c1221h23,S5c1222h03,S3b1022h04,S3b1022h20,S3b1022h23,S3b1023h04,S3b1024h04,S3b1025h22,S3b1026h20,S3b1027h19,S3b1028h23,S3b1028h24,S5c1222h01,S2aH8,S3b1025h03,S3b1025h04,S3b1027h21,S3b1028h05,S5c1217h01,S5c1217h23,S5c1218h05,S5c1220h20,S5c1223h19,S3aH8,S3b1022h22,S3b1023h24,S3b1027h06,S5c1219h06,S5c1220h06,S5c1220h21,S5c1222h21,S5c1223h20,S5c1223h24,S1aH1,S3b1023h06,S3b1025h02,S3b1026h02,S3b1026h05,S3b1026h22,S3b1027h20,S5c1218h01,S5c1218h03,S5c1220h23,S5c1223h03,S5c1223h22,S3b1022h06,S3b1024h01,S3b1024h19,S3b1024h22,S3b1024h23,S3b1026h04,S5c1217h05,S5c1218h06,S5c1218h21,S5c1219h01,S5c1221h24,S5c1222h04,S3b1027h01,S5c1217h21,S5c1218h23,S5c1220h24,S1aH8,S3b1024h06,S3b1025h19,S3b1027h02,S3b1028h03,S5aH1,S5c1223h05,S3b1023h20,S3b1024h02,S3b1026h21,S3b1027h05,S3b1028h01,S4aH8,S5c1217h19,S5c1218h04,S5c1219h02,S5c1219h19,S5c1219h21,S5c1221h19,S5c1222h23,S5c1223h01</v>
+        <v>S3b1022h01,S3b1022h02,S3b1024h03,S3b1025h05,S3b1025h20,S3b1026h24,S3b1028h06,S5c1218h02,S5c1219h03,S5c1220h04,S5c1222h06,S5c1223h02,S2aH8,S3b1025h03,S3b1025h04,S3b1027h21,S3b1028h05,S5c1217h01,S5c1217h23,S5c1218h05,S5c1220h20,S5c1223h19,S3b1022h06,S3b1024h01,S3b1024h19,S3b1024h22,S3b1024h23,S3b1026h04,S5c1217h05,S5c1218h06,S5c1218h21,S5c1219h01,S5c1221h24,S5c1222h04,S3b1022h04,S3b1022h20,S3b1022h23,S3b1023h04,S3b1024h04,S3b1025h22,S3b1026h20,S3b1027h19,S3b1028h23,S3b1028h24,S5c1222h01,S3b1027h01,S5c1217h21,S5c1218h23,S5c1220h24,S3b1023h21,S3b1023h23,S5c1217h02,S5c1217h22,S5c1219h05,S5c1221h05,S5c1221h20,S5c1222h24,S3b1023h05,S3b1023h19,S3b1026h03,S3b1027h03,S4aH1,S5c1217h20,S5c1218h19,S5c1218h20,S5c1219h04,S5c1220h02,S5c1220h22,S5c1221h02,S5c1222h02,S5c1223h21,S3b1022h05,S3b1022h21,S3b1022h24,S3b1023h01,S3b1024h20,S3b1025h06,S3b1027h04,S5c1219h23,S5c1219h24,S5c1220h03,S5c1220h05,S5c1221h23,S5c1222h03,S1aH8,S3b1024h06,S3b1025h19,S3b1027h02,S3b1028h03,S5aH1,S5c1223h05,S3aH8,S3b1022h22,S3b1023h24,S3b1027h06,S5c1219h06,S5c1220h06,S5c1220h21,S5c1222h21,S5c1223h20,S5c1223h24,S1aH1,S3b1023h06,S3b1025h02,S3b1026h02,S3b1026h05,S3b1026h22,S3b1027h20,S5c1218h01,S5c1218h03,S5c1220h23,S5c1223h03,S5c1223h22,S3b1023h20,S3b1024h02,S3b1026h21,S3b1027h05,S3b1028h01,S4aH8,S5c1217h19,S5c1218h04,S5c1219h02,S5c1219h19,S5c1219h21,S5c1221h19,S5c1222h23,S5c1223h01,S3b1025h23,S3b1025h24,S5c1217h04,S3b1022h19,S3b1025h21,S3b1026h19,S3b1026h23,S3b1027h22,S3b1027h23,S3b1028h02,S3b1028h04,S3b1028h19,S3b1028h21,S5c1217h06,S5c1217h24,S5c1219h20,S5c1219h22,S5c1220h01,S5c1220h19,S5c1221h04,S5c1221h06,S5c1221h21,S5c1221h22,S5c1223h06,S5c1223h23,S3aH1,S3b1023h02,S3b1023h03,S3b1024h24,S3b1025h01,S3b1026h01,S3b1027h24,S3b1028h20,S3b1028h22,S5c1217h03,S5c1218h24,S5c1221h01,S5c1222h19,S5c1223h04,S2aH1,S3b1022h03,S3b1023h22,S3b1024h05,S3b1024h21,S3b1026h06,S5aH8,S5c1218h22,S5c1221h03,S5c1222h05,S5c1222h20,S5c1222h22</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S2aH7,S3aH4,S3b1022h07,S3b1022h08,S3b1022h18,S3b1023h09,S3b1023h14,S3b1024h08,S3b1025h08,S3b1025h13,S3b1027h11,S3b1027h13,S3b1027h14,S3b1027h18,S3b1028h13,S3b1028h16,S4aH3,S4aH4,S5c1217h10,S5c1217h11,S5c1217h17,S5c1218h14,S5c1221h07,S5c1222h16,S5c1223h08,S3aH3,S3b1022h09,S3b1023h16,S3b1025h07,S3b1025h14,S3b1026h07,S3b1026h09,S3b1027h08,S3b1027h17,S5c1218h17,S5c1220h14,S5c1221h12,S5c1221h15,S5c1222h11,S5c1223h07,S1aH3,S3b1023h08,S3b1023h12,S3b1024h14,S5c1217h13,S5c1217h18,S5c1219h08,S5c1220h12,S5c1222h07,S5c1222h14,S5c1223h10,S3b1022h16,S3b1028h07,S3b1028h15,S4aH2,S5c1219h13,S5c1219h16,S5c1222h10,S1aH4,S2aH2,S3b1022h11,S3b1022h15,S3b1024h18,S4aH6,S5c1217h09,S5c1218h16,S5c1221h16,S5c1222h08,S3b1022h17,S3b1023h13,S3b1025h18,S3b1026h10,S3b1028h14,S4aH5,S5c1218h07,S5c1219h12,S5c1220h18,S5c1221h09,S5c1222h15,S3b1023h10,S3b1026h12,S3b1026h17,S3b1027h12,S5c1218h12,S5c1219h17,S5c1220h08,S5c1220h11,S5c1221h18,S5c1223h11,S5c1223h13,S1aH2,S1aH7,S2aH3,S3aH6,S3b1022h14,S3b1025h10,S3b1025h12,S4aH7,S5aH6,S5aH7,S5c1217h14,S5c1220h07,S5c1221h11,S1aH5,S2aH4,S2aH5,S3b1024h09,S3b1024h12,S3b1024h15,S3b1026h08,S3b1027h10,S3b1027h16,S3b1028h17,S5aH2,S5aH5,S5c1219h18,S5c1221h10,S5c1223h14,S5c1223h18,S3aH7,S3b1022h12,S3b1022h13,S3b1024h17,S3b1026h14,S3b1027h15,S3b1028h08,S5c1217h07,S5c1217h08,S5c1219h09,S5c1220h13,S5c1221h14,S5c1222h09,S5c1222h12,S3aH2,S3b1023h11,S3b1025h16,S3b1026h11,S3b1026h13,S3b1027h07,S3b1028h18,S5c1218h08,S5c1220h10,S3b1024h07,S3b1024h11,S3b1024h16,S3b1025h15,S3b1028h12,S5c1218h18,S5c1219h14,S5c1222h18,S5c1223h17,S3b1022h10,S3b1023h17,S3b1024h13,S3b1025h11,S3b1026h15,S3b1028h10,S3b1028h11,S5aH4,S5c1217h12,S5c1219h15,S5c1222h17,S5c1223h12,S1aH6,S3b1023h07,S3b1023h15,S3b1024h10,S3b1025h17,S3b1026h16,S5c1217h15,S5c1219h10,S5c1220h09,S5c1221h17,S5c1222h13,S2aH6,S3aH5,S3b1025h09,S3b1027h09,S3b1028h09,S5aH3,S5c1218h09,S5c1218h11,S5c1218h13,S5c1219h07,S5c1219h11,S5c1220h15,S5c1221h08,S5c1221h13,S5c1223h15,S5c1223h16,S3b1023h18,S3b1026h18,S5c1217h16,S5c1218h10,S5c1218h15,S5c1220h16,S5c1220h17,S5c1223h09</v>
+        <v>S3b1022h17,S3b1023h13,S3b1025h18,S3b1026h10,S3b1028h14,S4aH5,S5c1218h07,S5c1219h12,S5c1220h18,S5c1221h09,S5c1222h15,S3aH7,S3b1022h12,S3b1022h13,S3b1024h17,S3b1026h14,S3b1027h15,S3b1028h08,S5c1217h07,S5c1217h08,S5c1219h09,S5c1220h13,S5c1221h14,S5c1222h09,S5c1222h12,S3b1022h10,S3b1023h17,S3b1024h13,S3b1025h11,S3b1026h15,S3b1028h10,S3b1028h11,S5aH4,S5c1217h12,S5c1219h15,S5c1222h17,S5c1223h12,S1aH5,S2aH4,S2aH5,S3b1024h09,S3b1024h12,S3b1024h15,S3b1026h08,S3b1027h10,S3b1027h16,S3b1028h17,S5aH2,S5aH5,S5c1219h18,S5c1221h10,S5c1223h14,S5c1223h18,S1aH6,S3b1023h07,S3b1023h15,S3b1024h10,S3b1025h17,S3b1026h16,S5c1217h15,S5c1219h10,S5c1220h09,S5c1221h17,S5c1222h13,S1aH3,S3b1023h08,S3b1023h12,S3b1024h14,S5c1217h13,S5c1217h18,S5c1219h08,S5c1220h12,S5c1222h07,S5c1222h14,S5c1223h10,S1aH4,S2aH2,S3b1022h11,S3b1022h15,S3b1024h18,S4aH6,S5c1217h09,S5c1218h16,S5c1221h16,S5c1222h08,S1aH2,S1aH7,S2aH3,S3aH6,S3b1022h14,S3b1025h10,S3b1025h12,S4aH7,S5aH6,S5aH7,S5c1217h14,S5c1220h07,S5c1221h11,S2aH6,S3aH5,S3b1025h09,S3b1027h09,S3b1028h09,S5aH3,S5c1218h09,S5c1218h11,S5c1218h13,S5c1219h07,S5c1219h11,S5c1220h15,S5c1221h08,S5c1221h13,S5c1223h15,S5c1223h16,S3aH2,S3b1023h11,S3b1025h16,S3b1026h11,S3b1026h13,S3b1027h07,S3b1028h18,S5c1218h08,S5c1220h10,S3b1024h07,S3b1024h11,S3b1024h16,S3b1025h15,S3b1028h12,S5c1218h18,S5c1219h14,S5c1222h18,S5c1223h17,S3b1023h18,S3b1026h18,S5c1217h16,S5c1218h10,S5c1218h15,S5c1220h16,S5c1220h17,S5c1223h09,S2aH7,S3aH4,S3b1022h07,S3b1022h08,S3b1022h18,S3b1023h09,S3b1023h14,S3b1024h08,S3b1025h08,S3b1025h13,S3b1027h11,S3b1027h13,S3b1027h14,S3b1027h18,S3b1028h13,S3b1028h16,S4aH3,S4aH4,S5c1217h10,S5c1217h11,S5c1217h17,S5c1218h14,S5c1221h07,S5c1222h16,S5c1223h08,S3aH3,S3b1022h09,S3b1023h16,S3b1025h07,S3b1025h14,S3b1026h07,S3b1026h09,S3b1027h08,S3b1027h17,S5c1218h17,S5c1220h14,S5c1221h12,S5c1221h15,S5c1222h11,S5c1223h07,S3b1023h10,S3b1026h12,S3b1026h17,S3b1027h12,S5c1218h12,S5c1219h17,S5c1220h08,S5c1220h11,S5c1221h18,S5c1223h11,S5c1223h13,S3b1022h16,S3b1028h07,S3b1028h15,S4aH2,S5c1219h13,S5c1219h16,S5c1222h10</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -2991,7 +2991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC128C1-7C79-4F77-AB17-EE32D425E5CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00203026-D61A-4581-8799-F1C5028E4CBA}">
   <dimension ref="A9:AM762"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3214,10 +3214,10 @@
         <v>0.29524362667493453</v>
       </c>
       <c r="AK11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AL11">
-        <v>0.14770939379916706</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="AM11" t="s">
         <v>772</v>
@@ -3306,10 +3306,10 @@
         <v>4.7126123672023956E-2</v>
       </c>
       <c r="AK12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AL12">
-        <v>8.4821841739935219E-2</v>
+        <v>0.81410226746876446</v>
       </c>
       <c r="AM12" t="s">
         <v>772</v>
@@ -3398,10 +3398,10 @@
         <v>4.7484009459135335E-2</v>
       </c>
       <c r="AK13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AL13">
-        <v>7.5520592318371119E-2</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="AM13" t="s">
         <v>772</v>
@@ -3484,10 +3484,10 @@
         <v>4.5197330291383508E-2</v>
       </c>
       <c r="AK14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AL14">
-        <v>7.7845904673762151E-2</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="AM14" t="s">
         <v>772</v>
@@ -3570,10 +3570,10 @@
         <v>6.4766514599613911E-2</v>
       </c>
       <c r="AK15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL15">
-        <v>0.81410226746876446</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="AM15" t="s">
         <v>772</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s2_w.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{161587D8-F465-4DED-8173-A5262C7AA5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD7D7560-61CD-419F-ACDA-4A15DDFBC055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2334,13 +2334,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S3b1022h16,S3b1028h07,S3b1028h15,S4aH2,S5c1219h13,S5c1219h16,S5c1222h10,S3b1022h17,S3b1023h13,S3b1025h18,S3b1026h10,S3b1028h14,S4aH5,S5c1218h07,S5c1219h12,S5c1220h18,S5c1221h09,S5c1222h15,S1aH3,S3b1023h08,S3b1023h12,S3b1024h14,S5c1217h13,S5c1217h18,S5c1219h08,S5c1220h12,S5c1222h07,S5c1222h14,S5c1223h10,S3b1024h07,S3b1024h11,S3b1024h16,S3b1025h15,S3b1028h12,S5c1218h18,S5c1219h14,S5c1222h18,S5c1223h17,S3aH2,S3b1023h11,S3b1025h16,S3b1026h11,S3b1026h13,S3b1027h07,S3b1028h18,S5c1218h08,S5c1220h10,S3b1023h10,S3b1026h12,S3b1026h17,S3b1027h12,S5c1218h12,S5c1219h17,S5c1220h08,S5c1220h11,S5c1221h18,S5c1223h11,S5c1223h13,S3b1023h18,S3b1026h18,S5c1217h16,S5c1218h10,S5c1218h15,S5c1220h16,S5c1220h17,S5c1223h09,S2aH6,S3aH5,S3b1025h09,S3b1027h09,S3b1028h09,S5aH3,S5c1218h09,S5c1218h11,S5c1218h13,S5c1219h07,S5c1219h11,S5c1220h15,S5c1221h08,S5c1221h13,S5c1223h15,S5c1223h16,S1aH5,S2aH4,S2aH5,S3b1024h09,S3b1024h12,S3b1024h15,S3b1026h08,S3b1027h10,S3b1027h16,S3b1028h17,S5aH2,S5aH5,S5c1219h18,S5c1221h10,S5c1223h14,S5c1223h18,S3aH7,S3b1022h12,S3b1022h13,S3b1024h17,S3b1026h14,S3b1027h15,S3b1028h08,S5c1217h07,S5c1217h08,S5c1219h09,S5c1220h13,S5c1221h14,S5c1222h09,S5c1222h12,S3b1022h10,S3b1023h17,S3b1024h13,S3b1025h11,S3b1026h15,S3b1028h10,S3b1028h11,S5aH4,S5c1217h12,S5c1219h15,S5c1222h17,S5c1223h12,S1aH2,S1aH7,S2aH3,S3aH6,S3b1022h14,S3b1025h10,S3b1025h12,S4aH7,S5aH6,S5aH7,S5c1217h14,S5c1220h07,S5c1221h11,S1aH6,S3b1023h07,S3b1023h15,S3b1024h10,S3b1025h17,S3b1026h16,S5c1217h15,S5c1219h10,S5c1220h09,S5c1221h17,S5c1222h13,S2aH7,S3aH4,S3b1022h07,S3b1022h08,S3b1022h18,S3b1023h09,S3b1023h14,S3b1024h08,S3b1025h08,S3b1025h13,S3b1027h11,S3b1027h13,S3b1027h14,S3b1027h18,S3b1028h13,S3b1028h16,S4aH3,S4aH4,S5c1217h10,S5c1217h11,S5c1217h17,S5c1218h14,S5c1221h07,S5c1222h16,S5c1223h08,S1aH4,S2aH2,S3b1022h11,S3b1022h15,S3b1024h18,S4aH6,S5c1217h09,S5c1218h16,S5c1221h16,S5c1222h08,S3aH3,S3b1022h09,S3b1023h16,S3b1025h07,S3b1025h14,S3b1026h07,S3b1026h09,S3b1027h08,S3b1027h17,S5c1218h17,S5c1220h14,S5c1221h12,S5c1221h15,S5c1222h11,S5c1223h07</t>
+    <t>S1aH3,S3b1023h08,S3b1023h12,S3b1024h14,S5c1217h13,S5c1217h18,S5c1219h08,S5c1220h12,S5c1222h07,S5c1222h14,S5c1223h10,S3b1023h18,S3b1026h18,S5c1217h16,S5c1218h10,S5c1218h15,S5c1220h16,S5c1220h17,S5c1223h09,S3b1022h10,S3b1023h17,S3b1024h13,S3b1025h11,S3b1026h15,S3b1028h10,S3b1028h11,S5aH4,S5c1217h12,S5c1219h15,S5c1222h17,S5c1223h12,S1aH4,S2aH2,S3b1022h11,S3b1022h15,S3b1024h18,S4aH6,S5c1217h09,S5c1218h16,S5c1221h16,S5c1222h08,S2aH7,S3aH4,S3b1022h07,S3b1022h08,S3b1022h18,S3b1023h09,S3b1023h14,S3b1024h08,S3b1025h08,S3b1025h13,S3b1027h11,S3b1027h13,S3b1027h14,S3b1027h18,S3b1028h13,S3b1028h16,S4aH3,S4aH4,S5c1217h10,S5c1217h11,S5c1217h17,S5c1218h14,S5c1221h07,S5c1222h16,S5c1223h08,S3aH2,S3b1023h11,S3b1025h16,S3b1026h11,S3b1026h13,S3b1027h07,S3b1028h18,S5c1218h08,S5c1220h10,S3b1022h17,S3b1023h13,S3b1025h18,S3b1026h10,S3b1028h14,S4aH5,S5c1218h07,S5c1219h12,S5c1220h18,S5c1221h09,S5c1222h15,S3aH3,S3b1022h09,S3b1023h16,S3b1025h07,S3b1025h14,S3b1026h07,S3b1026h09,S3b1027h08,S3b1027h17,S5c1218h17,S5c1220h14,S5c1221h12,S5c1221h15,S5c1222h11,S5c1223h07,S3b1023h10,S3b1026h12,S3b1026h17,S3b1027h12,S5c1218h12,S5c1219h17,S5c1220h08,S5c1220h11,S5c1221h18,S5c1223h11,S5c1223h13,S1aH2,S1aH7,S2aH3,S3aH6,S3b1022h14,S3b1025h10,S3b1025h12,S4aH7,S5aH6,S5aH7,S5c1217h14,S5c1220h07,S5c1221h11,S2aH6,S3aH5,S3b1025h09,S3b1027h09,S3b1028h09,S5aH3,S5c1218h09,S5c1218h11,S5c1218h13,S5c1219h07,S5c1219h11,S5c1220h15,S5c1221h08,S5c1221h13,S5c1223h15,S5c1223h16,S3aH7,S3b1022h12,S3b1022h13,S3b1024h17,S3b1026h14,S3b1027h15,S3b1028h08,S5c1217h07,S5c1217h08,S5c1219h09,S5c1220h13,S5c1221h14,S5c1222h09,S5c1222h12,S1aH5,S2aH4,S2aH5,S3b1024h09,S3b1024h12,S3b1024h15,S3b1026h08,S3b1027h10,S3b1027h16,S3b1028h17,S5aH2,S5aH5,S5c1219h18,S5c1221h10,S5c1223h14,S5c1223h18,S3b1022h16,S3b1028h07,S3b1028h15,S4aH2,S5c1219h13,S5c1219h16,S5c1222h10,S1aH6,S3b1023h07,S3b1023h15,S3b1024h10,S3b1025h17,S3b1026h16,S5c1217h15,S5c1219h10,S5c1220h09,S5c1221h17,S5c1222h13,S3b1024h07,S3b1024h11,S3b1024h16,S3b1025h15,S3b1028h12,S5c1218h18,S5c1219h14,S5c1222h18,S5c1223h17</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S2aH1,S3b1022h03,S3b1023h22,S3b1024h05,S3b1024h21,S3b1026h06,S5aH8,S5c1218h22,S5c1221h03,S5c1222h05,S5c1222h20,S5c1222h22,S3b1022h01,S3b1022h02,S3b1024h03,S3b1025h05,S3b1025h20,S3b1026h24,S3b1028h06,S5c1218h02,S5c1219h03,S5c1220h04,S5c1222h06,S5c1223h02,S3b1023h21,S3b1023h23,S5c1217h02,S5c1217h22,S5c1219h05,S5c1221h05,S5c1221h20,S5c1222h24,S1aH1,S3b1023h06,S3b1025h02,S3b1026h02,S3b1026h05,S3b1026h22,S3b1027h20,S5c1218h01,S5c1218h03,S5c1220h23,S5c1223h03,S5c1223h22,S3aH8,S3b1022h22,S3b1023h24,S3b1027h06,S5c1219h06,S5c1220h06,S5c1220h21,S5c1222h21,S5c1223h20,S5c1223h24,S3aH1,S3b1023h02,S3b1023h03,S3b1024h24,S3b1025h01,S3b1026h01,S3b1027h24,S3b1028h20,S3b1028h22,S5c1217h03,S5c1218h24,S5c1221h01,S5c1222h19,S5c1223h04,S3b1023h20,S3b1024h02,S3b1026h21,S3b1027h05,S3b1028h01,S4aH8,S5c1217h19,S5c1218h04,S5c1219h02,S5c1219h19,S5c1219h21,S5c1221h19,S5c1222h23,S5c1223h01,S1aH8,S3b1024h06,S3b1025h19,S3b1027h02,S3b1028h03,S5aH1,S5c1223h05,S3b1022h04,S3b1022h20,S3b1022h23,S3b1023h04,S3b1024h04,S3b1025h22,S3b1026h20,S3b1027h19,S3b1028h23,S3b1028h24,S5c1222h01,S2aH8,S3b1025h03,S3b1025h04,S3b1027h21,S3b1028h05,S5c1217h01,S5c1217h23,S5c1218h05,S5c1220h20,S5c1223h19,S3b1022h06,S3b1024h01,S3b1024h19,S3b1024h22,S3b1024h23,S3b1026h04,S5c1217h05,S5c1218h06,S5c1218h21,S5c1219h01,S5c1221h24,S5c1222h04,S3b1022h05,S3b1022h21,S3b1022h24,S3b1023h01,S3b1024h20,S3b1025h06,S3b1027h04,S5c1219h23,S5c1219h24,S5c1220h03,S5c1220h05,S5c1221h23,S5c1222h03,S3b1027h01,S5c1217h21,S5c1218h23,S5c1220h24,S3b1025h23,S3b1025h24,S5c1217h04,S3b1023h05,S3b1023h19,S3b1026h03,S3b1027h03,S4aH1,S5c1217h20,S5c1218h19,S5c1218h20,S5c1219h04,S5c1220h02,S5c1220h22,S5c1221h02,S5c1222h02,S5c1223h21,S3b1022h19,S3b1025h21,S3b1026h19,S3b1026h23,S3b1027h22,S3b1027h23,S3b1028h02,S3b1028h04,S3b1028h19,S3b1028h21,S5c1217h06,S5c1217h24,S5c1219h20,S5c1219h22,S5c1220h01,S5c1220h19,S5c1221h04,S5c1221h06,S5c1221h21,S5c1221h22,S5c1223h06,S5c1223h23</t>
+    <t>S3b1023h21,S3b1023h23,S5c1217h02,S5c1217h22,S5c1219h05,S5c1221h05,S5c1221h20,S5c1222h24,S3b1023h20,S3b1024h02,S3b1026h21,S3b1027h05,S3b1028h01,S4aH8,S5c1217h19,S5c1218h04,S5c1219h02,S5c1219h19,S5c1219h21,S5c1221h19,S5c1222h23,S5c1223h01,S3b1022h06,S3b1024h01,S3b1024h19,S3b1024h22,S3b1024h23,S3b1026h04,S5c1217h05,S5c1218h06,S5c1218h21,S5c1219h01,S5c1221h24,S5c1222h04,S3b1023h05,S3b1023h19,S3b1026h03,S3b1027h03,S4aH1,S5c1217h20,S5c1218h19,S5c1218h20,S5c1219h04,S5c1220h02,S5c1220h22,S5c1221h02,S5c1222h02,S5c1223h21,S3b1025h23,S3b1025h24,S5c1217h04,S3aH8,S3b1022h22,S3b1023h24,S3b1027h06,S5c1219h06,S5c1220h06,S5c1220h21,S5c1222h21,S5c1223h20,S5c1223h24,S3b1022h01,S3b1022h02,S3b1024h03,S3b1025h05,S3b1025h20,S3b1026h24,S3b1028h06,S5c1218h02,S5c1219h03,S5c1220h04,S5c1222h06,S5c1223h02,S3b1022h19,S3b1025h21,S3b1026h19,S3b1026h23,S3b1027h22,S3b1027h23,S3b1028h02,S3b1028h04,S3b1028h19,S3b1028h21,S5c1217h06,S5c1217h24,S5c1219h20,S5c1219h22,S5c1220h01,S5c1220h19,S5c1221h04,S5c1221h06,S5c1221h21,S5c1221h22,S5c1223h06,S5c1223h23,S3aH1,S3b1023h02,S3b1023h03,S3b1024h24,S3b1025h01,S3b1026h01,S3b1027h24,S3b1028h20,S3b1028h22,S5c1217h03,S5c1218h24,S5c1221h01,S5c1222h19,S5c1223h04,S3b1022h05,S3b1022h21,S3b1022h24,S3b1023h01,S3b1024h20,S3b1025h06,S3b1027h04,S5c1219h23,S5c1219h24,S5c1220h03,S5c1220h05,S5c1221h23,S5c1222h03,S1aH8,S3b1024h06,S3b1025h19,S3b1027h02,S3b1028h03,S5aH1,S5c1223h05,S2aH8,S3b1025h03,S3b1025h04,S3b1027h21,S3b1028h05,S5c1217h01,S5c1217h23,S5c1218h05,S5c1220h20,S5c1223h19,S3b1022h04,S3b1022h20,S3b1022h23,S3b1023h04,S3b1024h04,S3b1025h22,S3b1026h20,S3b1027h19,S3b1028h23,S3b1028h24,S5c1222h01,S2aH1,S3b1022h03,S3b1023h22,S3b1024h05,S3b1024h21,S3b1026h06,S5aH8,S5c1218h22,S5c1221h03,S5c1222h05,S5c1222h20,S5c1222h22,S3b1027h01,S5c1217h21,S5c1218h23,S5c1220h24,S1aH1,S3b1023h06,S3b1025h02,S3b1026h02,S3b1026h05,S3b1026h22,S3b1027h20,S5c1218h01,S5c1218h03,S5c1220h23,S5c1223h03,S5c1223h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S2aH1,S3b1022h03,S3b1023h22,S3b1024h05,S3b1024h21,S3b1026h06,S5aH8,S5c1218h22,S5c1221h03,S5c1222h05,S5c1222h20,S5c1222h22,S3b1022h01,S3b1022h02,S3b1024h03,S3b1025h05,S3b1025h20,S3b1026h24,S3b1028h06,S5c1218h02,S5c1219h03,S5c1220h04,S5c1222h06,S5c1223h02,S3b1023h21,S3b1023h23,S5c1217h02,S5c1217h22,S5c1219h05,S5c1221h05,S5c1221h20,S5c1222h24,S1aH1,S3b1023h06,S3b1025h02,S3b1026h02,S3b1026h05,S3b1026h22,S3b1027h20,S5c1218h01,S5c1218h03,S5c1220h23,S5c1223h03,S5c1223h22,S3aH8,S3b1022h22,S3b1023h24,S3b1027h06,S5c1219h06,S5c1220h06,S5c1220h21,S5c1222h21,S5c1223h20,S5c1223h24,S3aH1,S3b1023h02,S3b1023h03,S3b1024h24,S3b1025h01,S3b1026h01,S3b1027h24,S3b1028h20,S3b1028h22,S5c1217h03,S5c1218h24,S5c1221h01,S5c1222h19,S5c1223h04,S3b1023h20,S3b1024h02,S3b1026h21,S3b1027h05,S3b1028h01,S4aH8,S5c1217h19,S5c1218h04,S5c1219h02,S5c1219h19,S5c1219h21,S5c1221h19,S5c1222h23,S5c1223h01,S1aH8,S3b1024h06,S3b1025h19,S3b1027h02,S3b1028h03,S5aH1,S5c1223h05,S3b1022h04,S3b1022h20,S3b1022h23,S3b1023h04,S3b1024h04,S3b1025h22,S3b1026h20,S3b1027h19,S3b1028h23,S3b1028h24,S5c1222h01,S2aH8,S3b1025h03,S3b1025h04,S3b1027h21,S3b1028h05,S5c1217h01,S5c1217h23,S5c1218h05,S5c1220h20,S5c1223h19,S3b1022h06,S3b1024h01,S3b1024h19,S3b1024h22,S3b1024h23,S3b1026h04,S5c1217h05,S5c1218h06,S5c1218h21,S5c1219h01,S5c1221h24,S5c1222h04,S3b1022h05,S3b1022h21,S3b1022h24,S3b1023h01,S3b1024h20,S3b1025h06,S3b1027h04,S5c1219h23,S5c1219h24,S5c1220h03,S5c1220h05,S5c1221h23,S5c1222h03,S3b1027h01,S5c1217h21,S5c1218h23,S5c1220h24,S3b1025h23,S3b1025h24,S5c1217h04,S3b1023h05,S3b1023h19,S3b1026h03,S3b1027h03,S4aH1,S5c1217h20,S5c1218h19,S5c1218h20,S5c1219h04,S5c1220h02,S5c1220h22,S5c1221h02,S5c1222h02,S5c1223h21,S3b1022h19,S3b1025h21,S3b1026h19,S3b1026h23,S3b1027h22,S3b1027h23,S3b1028h02,S3b1028h04,S3b1028h19,S3b1028h21,S5c1217h06,S5c1217h24,S5c1219h20,S5c1219h22,S5c1220h01,S5c1220h19,S5c1221h04,S5c1221h06,S5c1221h21,S5c1221h22,S5c1223h06,S5c1223h23</v>
+        <v>S3b1023h21,S3b1023h23,S5c1217h02,S5c1217h22,S5c1219h05,S5c1221h05,S5c1221h20,S5c1222h24,S3b1023h20,S3b1024h02,S3b1026h21,S3b1027h05,S3b1028h01,S4aH8,S5c1217h19,S5c1218h04,S5c1219h02,S5c1219h19,S5c1219h21,S5c1221h19,S5c1222h23,S5c1223h01,S3b1022h06,S3b1024h01,S3b1024h19,S3b1024h22,S3b1024h23,S3b1026h04,S5c1217h05,S5c1218h06,S5c1218h21,S5c1219h01,S5c1221h24,S5c1222h04,S3b1023h05,S3b1023h19,S3b1026h03,S3b1027h03,S4aH1,S5c1217h20,S5c1218h19,S5c1218h20,S5c1219h04,S5c1220h02,S5c1220h22,S5c1221h02,S5c1222h02,S5c1223h21,S3b1025h23,S3b1025h24,S5c1217h04,S3aH8,S3b1022h22,S3b1023h24,S3b1027h06,S5c1219h06,S5c1220h06,S5c1220h21,S5c1222h21,S5c1223h20,S5c1223h24,S3b1022h01,S3b1022h02,S3b1024h03,S3b1025h05,S3b1025h20,S3b1026h24,S3b1028h06,S5c1218h02,S5c1219h03,S5c1220h04,S5c1222h06,S5c1223h02,S3b1022h19,S3b1025h21,S3b1026h19,S3b1026h23,S3b1027h22,S3b1027h23,S3b1028h02,S3b1028h04,S3b1028h19,S3b1028h21,S5c1217h06,S5c1217h24,S5c1219h20,S5c1219h22,S5c1220h01,S5c1220h19,S5c1221h04,S5c1221h06,S5c1221h21,S5c1221h22,S5c1223h06,S5c1223h23,S3aH1,S3b1023h02,S3b1023h03,S3b1024h24,S3b1025h01,S3b1026h01,S3b1027h24,S3b1028h20,S3b1028h22,S5c1217h03,S5c1218h24,S5c1221h01,S5c1222h19,S5c1223h04,S3b1022h05,S3b1022h21,S3b1022h24,S3b1023h01,S3b1024h20,S3b1025h06,S3b1027h04,S5c1219h23,S5c1219h24,S5c1220h03,S5c1220h05,S5c1221h23,S5c1222h03,S1aH8,S3b1024h06,S3b1025h19,S3b1027h02,S3b1028h03,S5aH1,S5c1223h05,S2aH8,S3b1025h03,S3b1025h04,S3b1027h21,S3b1028h05,S5c1217h01,S5c1217h23,S5c1218h05,S5c1220h20,S5c1223h19,S3b1022h04,S3b1022h20,S3b1022h23,S3b1023h04,S3b1024h04,S3b1025h22,S3b1026h20,S3b1027h19,S3b1028h23,S3b1028h24,S5c1222h01,S2aH1,S3b1022h03,S3b1023h22,S3b1024h05,S3b1024h21,S3b1026h06,S5aH8,S5c1218h22,S5c1221h03,S5c1222h05,S5c1222h20,S5c1222h22,S3b1027h01,S5c1217h21,S5c1218h23,S5c1220h24,S1aH1,S3b1023h06,S3b1025h02,S3b1026h02,S3b1026h05,S3b1026h22,S3b1027h20,S5c1218h01,S5c1218h03,S5c1220h23,S5c1223h03,S5c1223h22</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S3b1022h16,S3b1028h07,S3b1028h15,S4aH2,S5c1219h13,S5c1219h16,S5c1222h10,S3b1022h17,S3b1023h13,S3b1025h18,S3b1026h10,S3b1028h14,S4aH5,S5c1218h07,S5c1219h12,S5c1220h18,S5c1221h09,S5c1222h15,S1aH3,S3b1023h08,S3b1023h12,S3b1024h14,S5c1217h13,S5c1217h18,S5c1219h08,S5c1220h12,S5c1222h07,S5c1222h14,S5c1223h10,S3b1024h07,S3b1024h11,S3b1024h16,S3b1025h15,S3b1028h12,S5c1218h18,S5c1219h14,S5c1222h18,S5c1223h17,S3aH2,S3b1023h11,S3b1025h16,S3b1026h11,S3b1026h13,S3b1027h07,S3b1028h18,S5c1218h08,S5c1220h10,S3b1023h10,S3b1026h12,S3b1026h17,S3b1027h12,S5c1218h12,S5c1219h17,S5c1220h08,S5c1220h11,S5c1221h18,S5c1223h11,S5c1223h13,S3b1023h18,S3b1026h18,S5c1217h16,S5c1218h10,S5c1218h15,S5c1220h16,S5c1220h17,S5c1223h09,S2aH6,S3aH5,S3b1025h09,S3b1027h09,S3b1028h09,S5aH3,S5c1218h09,S5c1218h11,S5c1218h13,S5c1219h07,S5c1219h11,S5c1220h15,S5c1221h08,S5c1221h13,S5c1223h15,S5c1223h16,S1aH5,S2aH4,S2aH5,S3b1024h09,S3b1024h12,S3b1024h15,S3b1026h08,S3b1027h10,S3b1027h16,S3b1028h17,S5aH2,S5aH5,S5c1219h18,S5c1221h10,S5c1223h14,S5c1223h18,S3aH7,S3b1022h12,S3b1022h13,S3b1024h17,S3b1026h14,S3b1027h15,S3b1028h08,S5c1217h07,S5c1217h08,S5c1219h09,S5c1220h13,S5c1221h14,S5c1222h09,S5c1222h12,S3b1022h10,S3b1023h17,S3b1024h13,S3b1025h11,S3b1026h15,S3b1028h10,S3b1028h11,S5aH4,S5c1217h12,S5c1219h15,S5c1222h17,S5c1223h12,S1aH2,S1aH7,S2aH3,S3aH6,S3b1022h14,S3b1025h10,S3b1025h12,S4aH7,S5aH6,S5aH7,S5c1217h14,S5c1220h07,S5c1221h11,S1aH6,S3b1023h07,S3b1023h15,S3b1024h10,S3b1025h17,S3b1026h16,S5c1217h15,S5c1219h10,S5c1220h09,S5c1221h17,S5c1222h13,S2aH7,S3aH4,S3b1022h07,S3b1022h08,S3b1022h18,S3b1023h09,S3b1023h14,S3b1024h08,S3b1025h08,S3b1025h13,S3b1027h11,S3b1027h13,S3b1027h14,S3b1027h18,S3b1028h13,S3b1028h16,S4aH3,S4aH4,S5c1217h10,S5c1217h11,S5c1217h17,S5c1218h14,S5c1221h07,S5c1222h16,S5c1223h08,S1aH4,S2aH2,S3b1022h11,S3b1022h15,S3b1024h18,S4aH6,S5c1217h09,S5c1218h16,S5c1221h16,S5c1222h08,S3aH3,S3b1022h09,S3b1023h16,S3b1025h07,S3b1025h14,S3b1026h07,S3b1026h09,S3b1027h08,S3b1027h17,S5c1218h17,S5c1220h14,S5c1221h12,S5c1221h15,S5c1222h11,S5c1223h07</v>
+        <v>S1aH3,S3b1023h08,S3b1023h12,S3b1024h14,S5c1217h13,S5c1217h18,S5c1219h08,S5c1220h12,S5c1222h07,S5c1222h14,S5c1223h10,S3b1023h18,S3b1026h18,S5c1217h16,S5c1218h10,S5c1218h15,S5c1220h16,S5c1220h17,S5c1223h09,S3b1022h10,S3b1023h17,S3b1024h13,S3b1025h11,S3b1026h15,S3b1028h10,S3b1028h11,S5aH4,S5c1217h12,S5c1219h15,S5c1222h17,S5c1223h12,S1aH4,S2aH2,S3b1022h11,S3b1022h15,S3b1024h18,S4aH6,S5c1217h09,S5c1218h16,S5c1221h16,S5c1222h08,S2aH7,S3aH4,S3b1022h07,S3b1022h08,S3b1022h18,S3b1023h09,S3b1023h14,S3b1024h08,S3b1025h08,S3b1025h13,S3b1027h11,S3b1027h13,S3b1027h14,S3b1027h18,S3b1028h13,S3b1028h16,S4aH3,S4aH4,S5c1217h10,S5c1217h11,S5c1217h17,S5c1218h14,S5c1221h07,S5c1222h16,S5c1223h08,S3aH2,S3b1023h11,S3b1025h16,S3b1026h11,S3b1026h13,S3b1027h07,S3b1028h18,S5c1218h08,S5c1220h10,S3b1022h17,S3b1023h13,S3b1025h18,S3b1026h10,S3b1028h14,S4aH5,S5c1218h07,S5c1219h12,S5c1220h18,S5c1221h09,S5c1222h15,S3aH3,S3b1022h09,S3b1023h16,S3b1025h07,S3b1025h14,S3b1026h07,S3b1026h09,S3b1027h08,S3b1027h17,S5c1218h17,S5c1220h14,S5c1221h12,S5c1221h15,S5c1222h11,S5c1223h07,S3b1023h10,S3b1026h12,S3b1026h17,S3b1027h12,S5c1218h12,S5c1219h17,S5c1220h08,S5c1220h11,S5c1221h18,S5c1223h11,S5c1223h13,S1aH2,S1aH7,S2aH3,S3aH6,S3b1022h14,S3b1025h10,S3b1025h12,S4aH7,S5aH6,S5aH7,S5c1217h14,S5c1220h07,S5c1221h11,S2aH6,S3aH5,S3b1025h09,S3b1027h09,S3b1028h09,S5aH3,S5c1218h09,S5c1218h11,S5c1218h13,S5c1219h07,S5c1219h11,S5c1220h15,S5c1221h08,S5c1221h13,S5c1223h15,S5c1223h16,S3aH7,S3b1022h12,S3b1022h13,S3b1024h17,S3b1026h14,S3b1027h15,S3b1028h08,S5c1217h07,S5c1217h08,S5c1219h09,S5c1220h13,S5c1221h14,S5c1222h09,S5c1222h12,S1aH5,S2aH4,S2aH5,S3b1024h09,S3b1024h12,S3b1024h15,S3b1026h08,S3b1027h10,S3b1027h16,S3b1028h17,S5aH2,S5aH5,S5c1219h18,S5c1221h10,S5c1223h14,S5c1223h18,S3b1022h16,S3b1028h07,S3b1028h15,S4aH2,S5c1219h13,S5c1219h16,S5c1222h10,S1aH6,S3b1023h07,S3b1023h15,S3b1024h10,S3b1025h17,S3b1026h16,S5c1217h15,S5c1219h10,S5c1220h09,S5c1221h17,S5c1222h13,S3b1024h07,S3b1024h11,S3b1024h16,S3b1025h15,S3b1028h12,S5c1218h18,S5c1219h14,S5c1222h18,S5c1223h17</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -2991,7 +2991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32583C28-6020-4F8A-9B90-33508D5B8722}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1456E9B-AD1E-4F79-8FD5-B39D75F8F86D}">
   <dimension ref="A9:AM762"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3214,10 +3214,10 @@
         <v>0.29524362667493453</v>
       </c>
       <c r="AK11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AL11">
-        <v>8.4821841739935219E-2</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="AM11" t="s">
         <v>772</v>
@@ -3398,10 +3398,10 @@
         <v>4.7484009459135335E-2</v>
       </c>
       <c r="AK13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AL13">
-        <v>7.5520592318371119E-2</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="AM13" t="s">
         <v>772</v>
@@ -3484,10 +3484,10 @@
         <v>4.5197330291383508E-2</v>
       </c>
       <c r="AK14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AL14">
-        <v>0.81410226746876457</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="AM14" t="s">
         <v>772</v>
@@ -3570,10 +3570,10 @@
         <v>6.4766514599613911E-2</v>
       </c>
       <c r="AK15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AL15">
-        <v>0.14770939379916706</v>
+        <v>0.81410226746876446</v>
       </c>
       <c r="AM15" t="s">
         <v>772</v>
